--- a/data/trans_orig/IP16A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{755DA5D6-C620-4D40-8C95-E9499B60CC22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7AC343A-43B4-4230-84F4-522A55F4E7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{82B28BD8-083E-403F-B633-8F82E2C98927}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E63232FB-6AF7-4431-B3CB-78945CECA6BE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>37,39%</t>
+  </si>
+  <si>
+    <t>62,71%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>53,61%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>57,73%</t>
+  </si>
+  <si>
+    <t>48,67%</t>
+  </si>
+  <si>
+    <t>66,74%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>37,29%</t>
+  </si>
+  <si>
+    <t>62,61%</t>
+  </si>
+  <si>
+    <t>32,56%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>46,39%</t>
+  </si>
+  <si>
+    <t>42,27%</t>
+  </si>
+  <si>
+    <t>33,26%</t>
+  </si>
+  <si>
+    <t>51,33%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>46,4%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
     <t>58,77%</t>
   </si>
   <si>
@@ -359,6 +359,60 @@
     <t>45,43%</t>
   </si>
   <si>
+    <t>61,8%</t>
+  </si>
+  <si>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>70,88%</t>
+  </si>
+  <si>
+    <t>62,35%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>62,05%</t>
+  </si>
+  <si>
+    <t>54,74%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>38,2%</t>
+  </si>
+  <si>
+    <t>29,12%</t>
+  </si>
+  <si>
+    <t>49,25%</t>
+  </si>
+  <si>
+    <t>37,65%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>45,26%</t>
+  </si>
+  <si>
     <t>58,71%</t>
   </si>
   <si>
@@ -413,60 +467,6 @@
     <t>53,21%</t>
   </si>
   <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
     <t>60,98%</t>
   </si>
   <si>
@@ -578,6 +578,60 @@
     <t>45,15%</t>
   </si>
   <si>
+    <t>65,74%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>70,17%</t>
+  </si>
+  <si>
+    <t>58,37%</t>
+  </si>
+  <si>
+    <t>79,63%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>34,26%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>29,83%</t>
+  </si>
+  <si>
+    <t>20,37%</t>
+  </si>
+  <si>
+    <t>41,63%</t>
+  </si>
+  <si>
+    <t>31,89%</t>
+  </si>
+  <si>
+    <t>25,05%</t>
+  </si>
+  <si>
+    <t>39,76%</t>
+  </si>
+  <si>
     <t>62,25%</t>
   </si>
   <si>
@@ -632,60 +686,6 @@
     <t>51,97%</t>
   </si>
   <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
     <t>63,26%</t>
   </si>
   <si>
@@ -779,6 +779,60 @@
     <t>42,25%</t>
   </si>
   <si>
+    <t>54,31%</t>
+  </si>
+  <si>
+    <t>42,41%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>36,67%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>51,05%</t>
+  </si>
+  <si>
+    <t>43,14%</t>
+  </si>
+  <si>
+    <t>59,61%</t>
+  </si>
+  <si>
+    <t>45,69%</t>
+  </si>
+  <si>
+    <t>33,15%</t>
+  </si>
+  <si>
+    <t>57,59%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>63,33%</t>
+  </si>
+  <si>
+    <t>48,95%</t>
+  </si>
+  <si>
+    <t>40,39%</t>
+  </si>
+  <si>
+    <t>56,86%</t>
+  </si>
+  <si>
     <t>59,17%</t>
   </si>
   <si>
@@ -825,60 +879,6 @@
   </si>
   <si>
     <t>47,86%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
   </si>
   <si>
     <t>55,92%</t>
@@ -1312,7 +1312,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D882F67-662C-43F5-8A2C-CA3C6F795821}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0898FCF-D2D7-4345-A19D-880351CD9481}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1585,10 +1585,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D7" s="7">
-        <v>34202</v>
+        <v>21296</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1600,10 +1600,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="I7" s="7">
-        <v>26983</v>
+        <v>22054</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1615,10 +1615,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="N7" s="7">
-        <v>61185</v>
+        <v>43349</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1636,10 +1636,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="7">
-        <v>20853</v>
+        <v>21094</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1651,10 +1651,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I8" s="7">
-        <v>17698</v>
+        <v>10649</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1666,10 +1666,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="N8" s="7">
-        <v>38551</v>
+        <v>31744</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1687,10 +1687,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>55055</v>
+        <v>42390</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1702,10 +1702,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>65</v>
+        <v>49</v>
       </c>
       <c r="I9" s="7">
-        <v>44681</v>
+        <v>32703</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1717,10 +1717,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>147</v>
+        <v>113</v>
       </c>
       <c r="N9" s="7">
-        <v>99736</v>
+        <v>75093</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1740,10 +1740,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="D10" s="7">
-        <v>21296</v>
+        <v>34202</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1755,10 +1755,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="I10" s="7">
-        <v>22054</v>
+        <v>26983</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1770,10 +1770,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>65</v>
+        <v>91</v>
       </c>
       <c r="N10" s="7">
-        <v>43349</v>
+        <v>61185</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1791,10 +1791,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D11" s="7">
-        <v>21094</v>
+        <v>20853</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1806,10 +1806,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>10649</v>
+        <v>17698</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1821,10 +1821,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N11" s="7">
-        <v>31744</v>
+        <v>38551</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1842,10 +1842,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>64</v>
+        <v>82</v>
       </c>
       <c r="D12" s="7">
-        <v>42390</v>
+        <v>55055</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1857,10 +1857,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="I12" s="7">
-        <v>32703</v>
+        <v>44681</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1872,10 +1872,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>75093</v>
+        <v>99736</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2058,7 +2058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{031F38BF-1B25-4E5B-B7A4-FC22B5C94E0D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BB049B-A0DE-4643-95F4-29195CB931C0}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2331,10 +2331,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="D7" s="7">
-        <v>26939</v>
+        <v>41966</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>106</v>
@@ -2346,10 +2346,10 @@
         <v>108</v>
       </c>
       <c r="H7" s="7">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I7" s="7">
-        <v>28904</v>
+        <v>34390</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>109</v>
@@ -2361,10 +2361,10 @@
         <v>111</v>
       </c>
       <c r="M7" s="7">
-        <v>81</v>
+        <v>105</v>
       </c>
       <c r="N7" s="7">
-        <v>55843</v>
+        <v>76356</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>112</v>
@@ -2382,10 +2382,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
+        <v>36</v>
       </c>
       <c r="D8" s="7">
-        <v>18947</v>
+        <v>25942</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>115</v>
@@ -2397,10 +2397,10 @@
         <v>117</v>
       </c>
       <c r="H8" s="7">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="I8" s="7">
-        <v>27987</v>
+        <v>20764</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>118</v>
@@ -2412,10 +2412,10 @@
         <v>120</v>
       </c>
       <c r="M8" s="7">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="N8" s="7">
-        <v>46934</v>
+        <v>46706</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>121</v>
@@ -2433,10 +2433,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>67</v>
+        <v>94</v>
       </c>
       <c r="D9" s="7">
-        <v>45886</v>
+        <v>67908</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2448,10 +2448,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I9" s="7">
-        <v>56891</v>
+        <v>55154</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2463,10 +2463,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="N9" s="7">
-        <v>102777</v>
+        <v>123062</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2486,10 +2486,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D10" s="7">
-        <v>41966</v>
+        <v>26939</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>124</v>
@@ -2501,10 +2501,10 @@
         <v>126</v>
       </c>
       <c r="H10" s="7">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="I10" s="7">
-        <v>34390</v>
+        <v>28904</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>127</v>
@@ -2516,10 +2516,10 @@
         <v>129</v>
       </c>
       <c r="M10" s="7">
-        <v>105</v>
+        <v>81</v>
       </c>
       <c r="N10" s="7">
-        <v>76356</v>
+        <v>55843</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>130</v>
@@ -2537,10 +2537,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>25942</v>
+        <v>18947</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>133</v>
@@ -2552,10 +2552,10 @@
         <v>135</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7">
-        <v>20764</v>
+        <v>27987</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>136</v>
@@ -2567,10 +2567,10 @@
         <v>138</v>
       </c>
       <c r="M11" s="7">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="N11" s="7">
-        <v>46706</v>
+        <v>46934</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>139</v>
@@ -2588,10 +2588,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="D12" s="7">
-        <v>67908</v>
+        <v>45886</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2603,10 +2603,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I12" s="7">
-        <v>55154</v>
+        <v>56891</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2618,10 +2618,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>170</v>
+        <v>149</v>
       </c>
       <c r="N12" s="7">
-        <v>123062</v>
+        <v>102777</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2804,7 +2804,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39BD7AE6-10CD-4AFE-811D-17FBBF7FE61E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7697014F-CFDD-408E-8E1F-01E4E0A785AB}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3077,10 +3077,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>31563</v>
+        <v>30696</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>179</v>
@@ -3092,10 +3092,10 @@
         <v>181</v>
       </c>
       <c r="H7" s="7">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="I7" s="7">
-        <v>29246</v>
+        <v>37716</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>182</v>
@@ -3107,10 +3107,10 @@
         <v>184</v>
       </c>
       <c r="M7" s="7">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="N7" s="7">
-        <v>60809</v>
+        <v>68412</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>185</v>
@@ -3128,10 +3128,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>19142</v>
+        <v>16000</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>188</v>
@@ -3143,10 +3143,10 @@
         <v>190</v>
       </c>
       <c r="H8" s="7">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="I8" s="7">
-        <v>27769</v>
+        <v>16036</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>191</v>
@@ -3158,10 +3158,10 @@
         <v>193</v>
       </c>
       <c r="M8" s="7">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="N8" s="7">
-        <v>46911</v>
+        <v>32036</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>194</v>
@@ -3179,10 +3179,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D9" s="7">
-        <v>50705</v>
+        <v>46696</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3197,7 +3197,7 @@
         <v>81</v>
       </c>
       <c r="I9" s="7">
-        <v>57015</v>
+        <v>53752</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3209,10 +3209,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="N9" s="7">
-        <v>107720</v>
+        <v>100448</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3232,10 +3232,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="7">
-        <v>30696</v>
+        <v>31563</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>197</v>
@@ -3247,10 +3247,10 @@
         <v>199</v>
       </c>
       <c r="H10" s="7">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="I10" s="7">
-        <v>37716</v>
+        <v>29246</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>200</v>
@@ -3262,10 +3262,10 @@
         <v>202</v>
       </c>
       <c r="M10" s="7">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="N10" s="7">
-        <v>68412</v>
+        <v>60809</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>203</v>
@@ -3283,10 +3283,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>16000</v>
+        <v>19142</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>206</v>
@@ -3298,10 +3298,10 @@
         <v>208</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="I11" s="7">
-        <v>16036</v>
+        <v>27769</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>209</v>
@@ -3313,10 +3313,10 @@
         <v>211</v>
       </c>
       <c r="M11" s="7">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="N11" s="7">
-        <v>32036</v>
+        <v>46911</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>212</v>
@@ -3334,10 +3334,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D12" s="7">
-        <v>46696</v>
+        <v>50705</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3352,7 +3352,7 @@
         <v>81</v>
       </c>
       <c r="I12" s="7">
-        <v>53752</v>
+        <v>57015</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3364,10 +3364,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N12" s="7">
-        <v>100448</v>
+        <v>107720</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3399,7 +3399,7 @@
         <v>216</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="H13" s="7">
         <v>149</v>
@@ -3447,7 +3447,7 @@
         <v>223</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>48</v>
+        <v>67</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>224</v>
@@ -3550,7 +3550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE29BCD8-8D06-44F6-9E76-E49C8D467902}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4C50B1-77A7-4035-A82E-DCA7920FE77C}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3680,7 +3680,7 @@
         <v>233</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="H4" s="7">
         <v>22</v>
@@ -3728,7 +3728,7 @@
         <v>239</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>240</v>
@@ -3823,49 +3823,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>50104</v>
+        <v>28232</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>246</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>172</v>
+        <v>247</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H7" s="7">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>44415</v>
+        <v>26184</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="M7" s="7">
-        <v>116</v>
+        <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>94519</v>
+        <v>54416</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,49 +3874,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D8" s="7">
-        <v>34576</v>
+        <v>23755</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>162</v>
+        <v>257</v>
       </c>
       <c r="H8" s="7">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I8" s="7">
-        <v>29195</v>
+        <v>28419</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M8" s="7">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="N8" s="7">
-        <v>63771</v>
+        <v>52174</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,10 +3925,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>84680</v>
+        <v>51987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3940,10 +3940,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>73610</v>
+        <v>54603</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3955,10 +3955,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>202</v>
+        <v>151</v>
       </c>
       <c r="N9" s="7">
-        <v>158290</v>
+        <v>106590</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3978,49 +3978,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D10" s="7">
-        <v>28232</v>
+        <v>50104</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H10" s="7">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="I10" s="7">
-        <v>26184</v>
+        <v>44415</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M10" s="7">
-        <v>75</v>
+        <v>116</v>
       </c>
       <c r="N10" s="7">
-        <v>54416</v>
+        <v>94519</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,25 +4029,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7">
-        <v>23755</v>
+        <v>34576</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>273</v>
+        <v>162</v>
       </c>
       <c r="H11" s="7">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I11" s="7">
-        <v>28419</v>
+        <v>29195</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>274</v>
@@ -4059,10 +4059,10 @@
         <v>276</v>
       </c>
       <c r="M11" s="7">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="N11" s="7">
-        <v>52174</v>
+        <v>63771</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>277</v>
@@ -4080,10 +4080,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>71</v>
+        <v>107</v>
       </c>
       <c r="D12" s="7">
-        <v>51987</v>
+        <v>84680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4095,10 +4095,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="I12" s="7">
-        <v>54603</v>
+        <v>73610</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4110,10 +4110,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>202</v>
       </c>
       <c r="N12" s="7">
-        <v>106590</v>
+        <v>158290</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4175,7 +4175,7 @@
         <v>286</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,7 +4223,7 @@
         <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>259</v>
+        <v>277</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>293</v>

--- a/data/trans_orig/IP16A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E7AC343A-43B4-4230-84F4-522A55F4E7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{31243769-9269-4527-B9B6-CB84A9E9B6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{E63232FB-6AF7-4431-B3CB-78945CECA6BE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DE8C1F8-1757-4487-9D5F-916F980AFF03}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="294">
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre en 2007 (Tasa respuesta: 19,25%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="362">
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,859 +68,1063 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>34,04%</t>
+  </si>
+  <si>
+    <t>24,29%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>62,57%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>72,94%</t>
-  </si>
-  <si>
-    <t>72,98%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>37,43%</t>
-  </si>
-  <si>
-    <t>27,06%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>27,02%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>42,22%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>65,96%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>75,71%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>5/9</t>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>34,59%</t>
+  </si>
+  <si>
+    <t>57,68%</t>
+  </si>
+  <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>44,98%</t>
+  </si>
+  <si>
+    <t>40,09%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>47,81%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>42,32%</t>
+  </si>
+  <si>
+    <t>65,41%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>55,02%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>19,56%</t>
+  </si>
+  <si>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>16,35%</t>
+  </si>
+  <si>
+    <t>47,07%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>45,29%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>80,44%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>52,93%</t>
+  </si>
+  <si>
+    <t>83,65%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>54,71%</t>
+  </si>
+  <si>
+    <t>76,92%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>26,99%</t>
+  </si>
+  <si>
+    <t>52,47%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>56,79%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>30,35%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>47,53%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>43,21%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>50,28%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>34,64%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>32,47%</t>
+  </si>
+  <si>
+    <t>42,48%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>65,36%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>57,52%</t>
+  </si>
+  <si>
+    <t>67,53%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2012 (Tasa respuesta: 25,87%)</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>27,94%</t>
+  </si>
+  <si>
+    <t>51,15%</t>
   </si>
   <si>
     <t>50,24%</t>
   </si>
   <si>
-    <t>37,39%</t>
-  </si>
-  <si>
-    <t>62,71%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>53,61%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>57,73%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>66,74%</t>
+    <t>39,68%</t>
+  </si>
+  <si>
+    <t>61,37%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>52,83%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
+  </si>
+  <si>
+    <t>72,06%</t>
   </si>
   <si>
     <t>49,76%</t>
   </si>
   <si>
-    <t>37,29%</t>
-  </si>
-  <si>
-    <t>62,61%</t>
-  </si>
-  <si>
-    <t>32,56%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>46,39%</t>
-  </si>
-  <si>
-    <t>42,27%</t>
-  </si>
-  <si>
-    <t>33,26%</t>
-  </si>
-  <si>
-    <t>51,33%</t>
-  </si>
-  <si>
-    <t>10/15</t>
+    <t>38,63%</t>
+  </si>
+  <si>
+    <t>60,32%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>47,17%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>28,94%</t>
+  </si>
+  <si>
+    <t>47,93%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>22,01%</t>
+  </si>
+  <si>
+    <t>41,34%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>27,64%</t>
+  </si>
+  <si>
+    <t>40,62%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>71,06%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>58,66%</t>
+  </si>
+  <si>
+    <t>77,99%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>59,38%</t>
+  </si>
+  <si>
+    <t>72,36%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>30,9%</t>
+  </si>
+  <si>
+    <t>57,27%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>32,42%</t>
+  </si>
+  <si>
+    <t>52,7%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>42,73%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>47,3%</t>
+  </si>
+  <si>
+    <t>67,58%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>53,35%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>35,56%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>54,32%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>46,65%</t>
+  </si>
+  <si>
+    <t>73,85%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>64,44%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>48,06%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>44,85%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>67,2%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>51,94%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2015 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>53,91%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>45,86%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>27,04%</t>
+  </si>
+  <si>
+    <t>46,54%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>46,09%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>54,14%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>53,46%</t>
+  </si>
+  <si>
+    <t>72,96%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>24,26%</t>
+  </si>
+  <si>
+    <t>46,57%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>46,06%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>53,43%</t>
+  </si>
+  <si>
+    <t>75,74%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>53,94%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>19,15%</t>
+  </si>
+  <si>
+    <t>43,32%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>25,41%</t>
+  </si>
+  <si>
+    <t>42,83%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>72,46%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>56,68%</t>
+  </si>
+  <si>
+    <t>80,85%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>57,17%</t>
+  </si>
+  <si>
+    <t>74,59%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>48,65%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>37,18%</t>
+  </si>
+  <si>
+    <t>65,29%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>34,03%</t>
+  </si>
+  <si>
+    <t>54,4%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>51,35%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>34,71%</t>
+  </si>
+  <si>
+    <t>62,82%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>45,6%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>43,87%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>32,41%</t>
+  </si>
+  <si>
+    <t>44,75%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>42,33%</t>
+  </si>
+  <si>
+    <t>56,13%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>55,25%</t>
+  </si>
+  <si>
+    <t>67,59%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>29,39%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>37,49%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>70,61%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>39,06%</t>
+  </si>
+  <si>
+    <t>62,51%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>35,73%</t>
+  </si>
+  <si>
+    <t>60,15%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>58,96%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>39,81%</t>
+  </si>
+  <si>
+    <t>55,88%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>39,85%</t>
+  </si>
+  <si>
+    <t>64,27%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>41,04%</t>
+  </si>
+  <si>
+    <t>64,54%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>44,12%</t>
+  </si>
+  <si>
+    <t>60,19%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>30,82%</t>
+  </si>
+  <si>
+    <t>57,45%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>48,77%</t>
+  </si>
+  <si>
+    <t>73,86%</t>
+  </si>
+  <si>
+    <t>42,57%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>69,18%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>51,23%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>53,81%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>45,52%</t>
+  </si>
+  <si>
+    <t>37,33%</t>
+  </si>
+  <si>
+    <t>46,82%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>46,19%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>54,48%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>62,67%</t>
+  </si>
+  <si>
+    <t>53,18%</t>
+  </si>
+  <si>
+    <t>44,08%</t>
+  </si>
+  <si>
+    <t>38,17%</t>
+  </si>
+  <si>
+    <t>51,77%</t>
+  </si>
+  <si>
+    <t>46,3%</t>
+  </si>
+  <si>
+    <t>37,88%</t>
+  </si>
+  <si>
+    <t>54,12%</t>
+  </si>
+  <si>
+    <t>45,13%</t>
+  </si>
+  <si>
+    <t>49,96%</t>
+  </si>
+  <si>
+    <t>55,92%</t>
+  </si>
+  <si>
+    <t>48,23%</t>
+  </si>
+  <si>
+    <t>61,83%</t>
+  </si>
+  <si>
+    <t>53,7%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
   </si>
   <si>
     <t>62,12%</t>
   </si>
   <si>
-    <t>51,44%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>60,39%</t>
-  </si>
-  <si>
-    <t>48,63%</t>
-  </si>
-  <si>
-    <t>72,22%</t>
-  </si>
-  <si>
-    <t>61,35%</t>
-  </si>
-  <si>
-    <t>53,6%</t>
-  </si>
-  <si>
-    <t>69,38%</t>
-  </si>
-  <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>48,56%</t>
-  </si>
-  <si>
-    <t>39,61%</t>
-  </si>
-  <si>
-    <t>27,78%</t>
-  </si>
-  <si>
-    <t>51,37%</t>
-  </si>
-  <si>
-    <t>38,65%</t>
-  </si>
-  <si>
-    <t>30,62%</t>
-  </si>
-  <si>
-    <t>46,4%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>52,1%</t>
-  </si>
-  <si>
-    <t>65,07%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>57,85%</t>
-  </si>
-  <si>
-    <t>66,94%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>34,93%</t>
-  </si>
-  <si>
-    <t>47,9%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>26,2%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>33,06%</t>
-  </si>
-  <si>
-    <t>42,15%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre en 2012 (Tasa respuesta: 25,87%)</t>
-  </si>
-  <si>
-    <t>61,59%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>70,5%</t>
-  </si>
-  <si>
-    <t>60,37%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>70,76%</t>
-  </si>
-  <si>
-    <t>60,99%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>67,72%</t>
-  </si>
-  <si>
-    <t>38,41%</t>
-  </si>
-  <si>
-    <t>29,5%</t>
-  </si>
-  <si>
-    <t>47,43%</t>
-  </si>
-  <si>
-    <t>39,63%</t>
-  </si>
-  <si>
-    <t>29,24%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>39,01%</t>
-  </si>
-  <si>
-    <t>32,28%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>61,8%</t>
-  </si>
-  <si>
-    <t>50,75%</t>
-  </si>
-  <si>
-    <t>70,88%</t>
-  </si>
-  <si>
-    <t>62,35%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>73,42%</t>
-  </si>
-  <si>
-    <t>62,05%</t>
-  </si>
-  <si>
-    <t>54,74%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>38,2%</t>
-  </si>
-  <si>
-    <t>29,12%</t>
-  </si>
-  <si>
-    <t>49,25%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
-  </si>
-  <si>
-    <t>26,58%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>37,95%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>58,71%</t>
-  </si>
-  <si>
-    <t>46,72%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>54,33%</t>
-  </si>
-  <si>
-    <t>46,79%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>41,29%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>53,28%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>45,67%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>53,21%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>54,95%</t>
-  </si>
-  <si>
-    <t>66,65%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>52,68%</t>
-  </si>
-  <si>
-    <t>64,82%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>45,05%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>35,18%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>61,97%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>73,16%</t>
-  </si>
-  <si>
-    <t>63,11%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>54,85%</t>
-  </si>
-  <si>
-    <t>69,94%</t>
-  </si>
-  <si>
-    <t>38,03%</t>
-  </si>
-  <si>
-    <t>26,84%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>36,89%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>30,06%</t>
-  </si>
-  <si>
-    <t>45,15%</t>
-  </si>
-  <si>
-    <t>65,74%</t>
-  </si>
-  <si>
-    <t>52,44%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>70,17%</t>
-  </si>
-  <si>
-    <t>58,37%</t>
-  </si>
-  <si>
-    <t>79,63%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>34,26%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>47,56%</t>
-  </si>
-  <si>
-    <t>29,83%</t>
-  </si>
-  <si>
-    <t>20,37%</t>
-  </si>
-  <si>
-    <t>41,63%</t>
-  </si>
-  <si>
-    <t>31,89%</t>
-  </si>
-  <si>
-    <t>25,05%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>62,25%</t>
-  </si>
-  <si>
-    <t>50,96%</t>
-  </si>
-  <si>
-    <t>73,74%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>39,97%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>56,45%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>64,0%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>26,26%</t>
-  </si>
-  <si>
-    <t>49,04%</t>
-  </si>
-  <si>
-    <t>48,7%</t>
-  </si>
-  <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>60,03%</t>
-  </si>
-  <si>
-    <t>43,55%</t>
-  </si>
-  <si>
-    <t>36,0%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>55,83%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>54,93%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>57,77%</t>
-  </si>
-  <si>
-    <t>66,48%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>44,17%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>45,07%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>33,52%</t>
-  </si>
-  <si>
-    <t>42,23%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolory/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>60,57%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>57,75%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>52,95%</t>
-  </si>
-  <si>
-    <t>39,43%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>42,25%</t>
-  </si>
-  <si>
-    <t>54,31%</t>
-  </si>
-  <si>
-    <t>42,41%</t>
-  </si>
-  <si>
-    <t>66,85%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>36,67%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>51,05%</t>
-  </si>
-  <si>
-    <t>43,14%</t>
-  </si>
-  <si>
-    <t>59,61%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>33,15%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>63,33%</t>
-  </si>
-  <si>
-    <t>48,95%</t>
-  </si>
-  <si>
-    <t>40,39%</t>
-  </si>
-  <si>
-    <t>56,86%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>69,54%</t>
-  </si>
-  <si>
-    <t>60,34%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>59,71%</t>
-  </si>
-  <si>
-    <t>52,14%</t>
-  </si>
-  <si>
-    <t>68,52%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>30,46%</t>
-  </si>
-  <si>
-    <t>39,66%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>40,29%</t>
-  </si>
-  <si>
-    <t>31,48%</t>
-  </si>
-  <si>
-    <t>47,86%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>46,44%</t>
-  </si>
-  <si>
-    <t>62,97%</t>
-  </si>
-  <si>
     <t>54,87%</t>
   </si>
   <si>
-    <t>49,64%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>37,03%</t>
-  </si>
-  <si>
-    <t>53,56%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>50,36%</t>
+    <t>50,04%</t>
   </si>
 </sst>
 </file>
@@ -931,7 +1135,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1027,39 +1231,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1111,7 +1315,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1222,13 +1426,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1237,6 +1434,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1301,19 +1505,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0898FCF-D2D7-4345-A19D-880351CD9481}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F071816-A8B0-416F-A48D-FEBFB5B84C70}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1430,10 +1654,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>29078</v>
+        <v>12023</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1445,10 +1669,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="I4" s="7">
-        <v>34973</v>
+        <v>7954</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1460,10 +1684,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>64051</v>
+        <v>19977</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1484,7 +1708,7 @@
         <v>26</v>
       </c>
       <c r="D5" s="7">
-        <v>17396</v>
+        <v>17632</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1496,10 +1720,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="I5" s="7">
-        <v>12948</v>
+        <v>21081</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1511,10 +1735,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N5" s="7">
-        <v>30344</v>
+        <v>38713</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1532,10 +1756,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>69</v>
+        <v>44</v>
       </c>
       <c r="D6" s="7">
-        <v>46474</v>
+        <v>29655</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1547,10 +1771,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>76</v>
+        <v>46</v>
       </c>
       <c r="I6" s="7">
-        <v>47921</v>
+        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1562,10 +1786,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>145</v>
+        <v>90</v>
       </c>
       <c r="N6" s="7">
-        <v>94395</v>
+        <v>58690</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1585,10 +1809,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>21296</v>
+        <v>23461</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1600,10 +1824,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="I7" s="7">
-        <v>22054</v>
+        <v>14295</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1615,10 +1839,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="N7" s="7">
-        <v>43349</v>
+        <v>37757</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1636,10 +1860,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="D8" s="7">
-        <v>21094</v>
+        <v>27499</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1651,10 +1875,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="I8" s="7">
-        <v>10649</v>
+        <v>28926</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1666,10 +1890,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="N8" s="7">
-        <v>31744</v>
+        <v>56424</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1687,10 +1911,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D9" s="7">
-        <v>42390</v>
+        <v>50960</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1702,10 +1926,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="I9" s="7">
-        <v>32703</v>
+        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1717,10 +1941,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>113</v>
+        <v>142</v>
       </c>
       <c r="N9" s="7">
-        <v>75093</v>
+        <v>94181</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1740,10 +1964,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>34202</v>
+        <v>8489</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1755,10 +1979,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="I10" s="7">
-        <v>26983</v>
+        <v>6703</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1770,10 +1994,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>91</v>
+        <v>22</v>
       </c>
       <c r="N10" s="7">
-        <v>61185</v>
+        <v>15192</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1791,10 +2015,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="D11" s="7">
-        <v>20853</v>
+        <v>15377</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1806,10 +2030,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I11" s="7">
-        <v>17698</v>
+        <v>15804</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1821,10 +2045,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="N11" s="7">
-        <v>38551</v>
+        <v>31181</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1842,10 +2066,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="D12" s="7">
-        <v>55055</v>
+        <v>23866</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1857,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>65</v>
+        <v>33</v>
       </c>
       <c r="I12" s="7">
-        <v>44681</v>
+        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1872,10 +2096,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>69</v>
       </c>
       <c r="N12" s="7">
-        <v>99736</v>
+        <v>46373</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1889,55 +2113,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>126</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>84576</v>
+        <v>15370</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>128</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>84010</v>
+        <v>12343</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>254</v>
+        <v>41</v>
       </c>
       <c r="N13" s="7">
-        <v>168586</v>
+        <v>27713</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1946,49 +2170,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>89</v>
+        <v>36</v>
       </c>
       <c r="D14" s="7">
-        <v>59343</v>
+        <v>24068</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>62</v>
+        <v>27</v>
       </c>
       <c r="I14" s="7">
-        <v>41295</v>
+        <v>18200</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>151</v>
+        <v>63</v>
       </c>
       <c r="N14" s="7">
-        <v>100638</v>
+        <v>42268</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1997,55 +2221,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>59</v>
+      </c>
+      <c r="D15" s="7">
+        <v>39438</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>45</v>
+      </c>
+      <c r="I15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>104</v>
+      </c>
+      <c r="N15" s="7">
+        <v>69981</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>89</v>
+      </c>
+      <c r="D16" s="7">
+        <v>59343</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>62</v>
+      </c>
+      <c r="I16" s="7">
+        <v>41295</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>151</v>
+      </c>
+      <c r="N16" s="7">
+        <v>100638</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>126</v>
+      </c>
+      <c r="D17" s="7">
+        <v>84576</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>128</v>
+      </c>
+      <c r="I17" s="7">
+        <v>84010</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>254</v>
+      </c>
+      <c r="N17" s="7">
+        <v>168586</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>215</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>143919</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>190</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>125305</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>405</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>269224</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2058,8 +2443,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78BB049B-A0DE-4643-95F4-29195CB931C0}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB28BDF-0592-4C7D-A065-1E0F1C82C654}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2075,7 +2460,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2176,49 +2561,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="D4" s="7">
-        <v>48606</v>
+        <v>20083</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>45632</v>
+        <v>24868</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>138</v>
+        <v>65</v>
       </c>
       <c r="N4" s="7">
-        <v>94238</v>
+        <v>44951</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>94</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2227,49 +2612,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7">
-        <v>30309</v>
+        <v>31666</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>97</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>99</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="I5" s="7">
-        <v>29960</v>
+        <v>24634</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="N5" s="7">
-        <v>60269</v>
+        <v>56300</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>103</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>104</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2278,10 +2663,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="D6" s="7">
-        <v>78915</v>
+        <v>51749</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2293,10 +2678,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>112</v>
+        <v>73</v>
       </c>
       <c r="I6" s="7">
-        <v>75592</v>
+        <v>49502</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2308,10 +2693,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>224</v>
+        <v>146</v>
       </c>
       <c r="N6" s="7">
-        <v>154507</v>
+        <v>101251</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2331,49 +2716,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>41966</v>
+        <v>28521</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>106</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>108</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>34390</v>
+        <v>19933</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>110</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>111</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>105</v>
+        <v>67</v>
       </c>
       <c r="N7" s="7">
-        <v>76356</v>
+        <v>48453</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>113</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2382,49 +2767,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="D8" s="7">
-        <v>25942</v>
+        <v>47382</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="I8" s="7">
-        <v>20764</v>
+        <v>45314</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="N8" s="7">
-        <v>46706</v>
+        <v>92697</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2433,10 +2818,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D9" s="7">
-        <v>67908</v>
+        <v>75903</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2448,10 +2833,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="I9" s="7">
-        <v>55154</v>
+        <v>65247</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2463,10 +2848,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>170</v>
+        <v>199</v>
       </c>
       <c r="N9" s="7">
-        <v>123062</v>
+        <v>141150</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2486,49 +2871,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>26939</v>
+        <v>13467</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>126</v>
+        <v>139</v>
       </c>
       <c r="H10" s="7">
+        <v>23</v>
+      </c>
+      <c r="I10" s="7">
+        <v>16742</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M10" s="7">
         <v>42</v>
       </c>
-      <c r="I10" s="7">
-        <v>28904</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="M10" s="7">
-        <v>81</v>
-      </c>
       <c r="N10" s="7">
-        <v>55843</v>
+        <v>30210</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2537,49 +2922,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
-        <v>18947</v>
+        <v>19027</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="H11" s="7">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="I11" s="7">
-        <v>27987</v>
+        <v>20986</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="M11" s="7">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="N11" s="7">
-        <v>46934</v>
+        <v>40013</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>140</v>
+        <v>158</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>141</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,10 +2973,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="D12" s="7">
-        <v>45886</v>
+        <v>32494</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2603,10 +2988,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>56891</v>
+        <v>37728</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2618,10 +3003,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="N12" s="7">
-        <v>102777</v>
+        <v>70223</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2635,55 +3020,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>20</v>
+      </c>
+      <c r="D13" s="7">
+        <v>13128</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H13" s="7">
+        <v>25</v>
+      </c>
+      <c r="I13" s="7">
+        <v>17168</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="L13" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="M13" s="7">
+        <v>45</v>
+      </c>
+      <c r="N13" s="7">
+        <v>30296</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="D13" s="7">
-        <v>117511</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H13" s="7">
-        <v>158</v>
-      </c>
-      <c r="I13" s="7">
-        <v>108926</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M13" s="7">
-        <v>324</v>
-      </c>
-      <c r="N13" s="7">
-        <v>226437</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="P13" s="7" t="s">
-        <v>149</v>
+        <v>167</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>150</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,49 +3077,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
-        <v>75199</v>
+        <v>19435</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>151</v>
+        <v>169</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>152</v>
+        <v>170</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>153</v>
+        <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>112</v>
+        <v>26</v>
       </c>
       <c r="I14" s="7">
-        <v>78711</v>
+        <v>17993</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>154</v>
+        <v>172</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>155</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>219</v>
+        <v>54</v>
       </c>
       <c r="N14" s="7">
-        <v>153910</v>
+        <v>37428</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,55 +3128,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>48</v>
+      </c>
+      <c r="D15" s="7">
+        <v>32563</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>51</v>
+      </c>
+      <c r="I15" s="7">
+        <v>35161</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>99</v>
+      </c>
+      <c r="N15" s="7">
+        <v>67724</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>107</v>
+      </c>
+      <c r="D16" s="7">
+        <v>75199</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="H16" s="7">
+        <v>112</v>
+      </c>
+      <c r="I16" s="7">
+        <v>78711</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="M16" s="7">
+        <v>219</v>
+      </c>
+      <c r="N16" s="7">
+        <v>153910</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>166</v>
+      </c>
+      <c r="D17" s="7">
+        <v>117511</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H17" s="7">
+        <v>158</v>
+      </c>
+      <c r="I17" s="7">
+        <v>108926</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="M17" s="7">
+        <v>324</v>
+      </c>
+      <c r="N17" s="7">
+        <v>226437</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>273</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>192710</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>270</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>187637</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>543</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>380347</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2804,8 +3350,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7697014F-CFDD-408E-8E1F-01E4E0A785AB}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CA6049-8B88-458A-8195-6812488EA875}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2821,7 +3367,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2922,49 +3468,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>30974</v>
+        <v>11885</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>33125</v>
+        <v>10056</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>99</v>
+        <v>36</v>
       </c>
       <c r="N4" s="7">
-        <v>64099</v>
+        <v>21940</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2973,49 +3519,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>19010</v>
+        <v>18294</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="I5" s="7">
-        <v>19367</v>
+        <v>21237</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
         <v>62</v>
       </c>
       <c r="N5" s="7">
-        <v>38377</v>
+        <v>39531</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3024,10 +3570,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>77</v>
+        <v>47</v>
       </c>
       <c r="D6" s="7">
-        <v>49984</v>
+        <v>30179</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3039,10 +3585,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="I6" s="7">
-        <v>52492</v>
+        <v>31293</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3054,10 +3600,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>161</v>
+        <v>98</v>
       </c>
       <c r="N6" s="7">
-        <v>102476</v>
+        <v>61471</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3077,49 +3623,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>44</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>30696</v>
+        <v>16420</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>37716</v>
+        <v>21807</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>183</v>
+        <v>39</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="M7" s="7">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="N7" s="7">
-        <v>68412</v>
+        <v>38228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>186</v>
+        <v>220</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>187</v>
+        <v>221</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3128,49 +3674,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="D8" s="7">
-        <v>16000</v>
+        <v>30946</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>188</v>
+        <v>222</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>189</v>
+        <v>223</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>190</v>
+        <v>224</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="I8" s="7">
-        <v>16036</v>
+        <v>30017</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>193</v>
+        <v>49</v>
       </c>
       <c r="M8" s="7">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="N8" s="7">
-        <v>32036</v>
+        <v>60962</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>194</v>
+        <v>226</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>195</v>
+        <v>227</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>196</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3179,10 +3725,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="D9" s="7">
-        <v>46696</v>
+        <v>47366</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3194,10 +3740,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>53752</v>
+        <v>51824</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3209,10 +3755,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="N9" s="7">
-        <v>100448</v>
+        <v>99190</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3232,49 +3778,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>31563</v>
+        <v>16593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>197</v>
+        <v>229</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>199</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7">
+        <v>18</v>
+      </c>
+      <c r="I10" s="7">
+        <v>12756</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M10" s="7">
         <v>41</v>
       </c>
-      <c r="I10" s="7">
-        <v>29246</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M10" s="7">
-        <v>84</v>
-      </c>
       <c r="N10" s="7">
-        <v>60809</v>
+        <v>29348</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>235</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>204</v>
+        <v>236</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>205</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3283,49 +3829,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="D11" s="7">
-        <v>19142</v>
+        <v>26207</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>206</v>
+        <v>238</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="H11" s="7">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="I11" s="7">
-        <v>27769</v>
+        <v>31147</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="M11" s="7">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="N11" s="7">
-        <v>46911</v>
+        <v>57355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>213</v>
+        <v>245</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3334,10 +3880,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="D12" s="7">
-        <v>50705</v>
+        <v>42800</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3349,10 +3895,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="I12" s="7">
-        <v>57015</v>
+        <v>43903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3364,10 +3910,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>107720</v>
+        <v>86703</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3381,55 +3927,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>134</v>
+        <v>13</v>
       </c>
       <c r="D13" s="7">
-        <v>93232</v>
+        <v>9255</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>215</v>
+        <v>247</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>248</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>59</v>
+        <v>249</v>
       </c>
       <c r="H13" s="7">
-        <v>149</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>100087</v>
+        <v>18553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>250</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>251</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>252</v>
       </c>
       <c r="M13" s="7">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="N13" s="7">
-        <v>193321</v>
+        <v>27808</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>253</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>255</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3438,49 +3984,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>54153</v>
+        <v>17786</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>256</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>67</v>
+        <v>257</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>258</v>
       </c>
       <c r="H14" s="7">
-        <v>97</v>
+        <v>25</v>
       </c>
       <c r="I14" s="7">
-        <v>63172</v>
+        <v>17686</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>260</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>227</v>
+        <v>261</v>
       </c>
       <c r="M14" s="7">
-        <v>177</v>
+        <v>49</v>
       </c>
       <c r="N14" s="7">
-        <v>117324</v>
+        <v>35473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>228</v>
+        <v>262</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>229</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>264</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3489,55 +4035,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>37</v>
+      </c>
+      <c r="D15" s="7">
+        <v>27041</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>52</v>
+      </c>
+      <c r="I15" s="7">
+        <v>36239</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>89</v>
+      </c>
+      <c r="N15" s="7">
+        <v>63281</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>80</v>
+      </c>
+      <c r="D16" s="7">
+        <v>54153</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H16" s="7">
+        <v>97</v>
+      </c>
+      <c r="I16" s="7">
+        <v>63172</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="M16" s="7">
+        <v>177</v>
+      </c>
+      <c r="N16" s="7">
+        <v>117324</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>134</v>
+      </c>
+      <c r="D17" s="7">
+        <v>93232</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H17" s="7">
+        <v>149</v>
+      </c>
+      <c r="I17" s="7">
+        <v>100087</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="M17" s="7">
+        <v>283</v>
+      </c>
+      <c r="N17" s="7">
+        <v>193321</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>214</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>147385</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>246</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>163259</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>460</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>310645</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3550,8 +4257,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D4C50B1-77A7-4035-A82E-DCA7920FE77C}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF849AD-8E23-46C1-990C-5426A0183762}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3567,7 +4274,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>231</v>
+        <v>281</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3668,49 +4375,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7">
-        <v>18140</v>
+        <v>9337</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>232</v>
+        <v>282</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>233</v>
+        <v>283</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>132</v>
+        <v>238</v>
       </c>
       <c r="H4" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="I4" s="7">
-        <v>12326</v>
+        <v>8617</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>234</v>
+        <v>284</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>30466</v>
+        <v>17954</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>237</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>29</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>238</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3719,49 +4426,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D5" s="7">
-        <v>17730</v>
+        <v>11598</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>239</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="H5" s="7">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="I5" s="7">
-        <v>13872</v>
+        <v>7325</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>241</v>
+        <v>291</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>242</v>
+        <v>292</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
       <c r="M5" s="7">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="N5" s="7">
-        <v>31602</v>
+        <v>18923</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>244</v>
+        <v>293</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3770,40 +4477,40 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>42</v>
+      </c>
+      <c r="D6" s="7">
+        <v>20935</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
+        <v>30</v>
+      </c>
+      <c r="I6" s="7">
+        <v>15942</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M6" s="7">
         <v>72</v>
       </c>
-      <c r="D6" s="7">
-        <v>35870</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7">
-        <v>26198</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M6" s="7">
-        <v>123</v>
-      </c>
       <c r="N6" s="7">
-        <v>62068</v>
+        <v>36877</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3826,46 +4533,46 @@
         <v>38</v>
       </c>
       <c r="D7" s="7">
-        <v>28232</v>
+        <v>21908</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>246</v>
+        <v>296</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>247</v>
+        <v>297</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>248</v>
+        <v>298</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>26184</v>
+        <v>21314</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>249</v>
+        <v>299</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>54416</v>
+        <v>43222</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>302</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>303</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>304</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,49 +4581,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D8" s="7">
-        <v>23755</v>
+        <v>24094</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>305</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>306</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>307</v>
       </c>
       <c r="H8" s="7">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="I8" s="7">
-        <v>28419</v>
+        <v>23430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>308</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>309</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>260</v>
+        <v>310</v>
       </c>
       <c r="M8" s="7">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="N8" s="7">
-        <v>52174</v>
+        <v>47524</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>261</v>
+        <v>311</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>262</v>
+        <v>312</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>263</v>
+        <v>313</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,10 +4632,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>51987</v>
+        <v>46002</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3940,10 +4647,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>54603</v>
+        <v>44744</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3955,10 +4662,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>106590</v>
+        <v>90746</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3978,49 +4685,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>63</v>
+        <v>23</v>
       </c>
       <c r="D10" s="7">
-        <v>50104</v>
+        <v>18992</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>264</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>172</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
-        <v>53</v>
+        <v>33</v>
       </c>
       <c r="I10" s="7">
-        <v>44415</v>
+        <v>23017</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>266</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>267</v>
+        <v>318</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>268</v>
+        <v>319</v>
       </c>
       <c r="M10" s="7">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="N10" s="7">
-        <v>94519</v>
+        <v>42009</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>269</v>
+        <v>48</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>270</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>271</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,49 +4736,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D11" s="7">
-        <v>34576</v>
+        <v>24591</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>272</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>273</v>
+        <v>323</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>162</v>
+        <v>324</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="I11" s="7">
-        <v>29195</v>
+        <v>13886</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>274</v>
+        <v>325</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>275</v>
+        <v>326</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>276</v>
+        <v>327</v>
       </c>
       <c r="M11" s="7">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="N11" s="7">
-        <v>63771</v>
+        <v>38477</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>277</v>
+        <v>40</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>279</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,10 +4787,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>107</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>84680</v>
+        <v>43583</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4095,10 +4802,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>95</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>73610</v>
+        <v>36903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4110,10 +4817,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>202</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>158290</v>
+        <v>80486</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4127,55 +4834,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="D13" s="7">
-        <v>96476</v>
+        <v>25823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>280</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>237</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>281</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="I13" s="7">
-        <v>82925</v>
+        <v>18538</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>282</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>283</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>284</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
-        <v>247</v>
+        <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>179401</v>
+        <v>44362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>285</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>286</v>
+        <v>133</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4184,49 +4891,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>76061</v>
+        <v>36193</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>244</v>
+        <v>340</v>
       </c>
       <c r="H14" s="7">
-        <v>114</v>
+        <v>44</v>
       </c>
       <c r="I14" s="7">
-        <v>71487</v>
+        <v>38284</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>289</v>
+        <v>341</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>290</v>
+        <v>342</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>291</v>
+        <v>343</v>
       </c>
       <c r="M14" s="7">
-        <v>229</v>
+        <v>88</v>
       </c>
       <c r="N14" s="7">
-        <v>147547</v>
+        <v>74477</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>277</v>
+        <v>345</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>293</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,55 +4942,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>77</v>
+      </c>
+      <c r="D15" s="7">
+        <v>62016</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>71</v>
+      </c>
+      <c r="I15" s="7">
+        <v>56822</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>148</v>
+      </c>
+      <c r="N15" s="7">
+        <v>118839</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>115</v>
+      </c>
+      <c r="D16" s="7">
+        <v>76061</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H16" s="7">
+        <v>114</v>
+      </c>
+      <c r="I16" s="7">
+        <v>71487</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>351</v>
+      </c>
+      <c r="M16" s="7">
+        <v>229</v>
+      </c>
+      <c r="N16" s="7">
+        <v>147547</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>135</v>
+      </c>
+      <c r="D17" s="7">
+        <v>96476</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>354</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="H17" s="7">
+        <v>112</v>
+      </c>
+      <c r="I17" s="7">
+        <v>82925</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>357</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="M17" s="7">
+        <v>247</v>
+      </c>
+      <c r="N17" s="7">
+        <v>179401</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>250</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>172537</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>226</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>154412</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>476</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>326948</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A02-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{31243769-9269-4527-B9B6-CB84A9E9B6AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9DF4973-A219-4949-93AB-43A2CCD3C15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8DE8C1F8-1757-4487-9D5F-916F980AFF03}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B30A24B6-0427-4165-AB96-C685D523AF5E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>40,54%</t>
   </si>
   <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>55,66%</t>
   </si>
   <si>
     <t>27,4%</t>
   </si>
   <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>40,72%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>43,84%</t>
+    <t>24,42%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>59,46%</t>
   </si>
   <si>
-    <t>42,22%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
+    <t>44,34%</t>
+  </si>
+  <si>
+    <t>73,11%</t>
   </si>
   <si>
     <t>72,6%</t>
   </si>
   <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
+    <t>59,28%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
   </si>
   <si>
     <t>65,96%</t>
   </si>
   <si>
-    <t>56,16%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
+    <t>55,61%</t>
+  </si>
+  <si>
+    <t>75,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,991 +140,1021 @@
     <t>46,04%</t>
   </si>
   <si>
-    <t>34,59%</t>
-  </si>
-  <si>
-    <t>57,68%</t>
+    <t>34,87%</t>
+  </si>
+  <si>
+    <t>57,25%</t>
   </si>
   <si>
     <t>33,07%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>44,98%</t>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>44,7%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>31,92%</t>
+    <t>32,98%</t>
+  </si>
+  <si>
+    <t>48,66%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>42,75%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>55,3%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>59,91%</t>
+  </si>
+  <si>
+    <t>51,34%</t>
+  </si>
+  <si>
+    <t>67,02%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>35,57%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>52,68%</t>
+  </si>
+  <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>15,92%</t>
+  </si>
+  <si>
+    <t>45,8%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>22,58%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>77,42%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>52,48%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>26,13%</t>
+  </si>
+  <si>
+    <t>55,22%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>30,0%</t>
+  </si>
+  <si>
+    <t>48,71%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>47,52%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>44,78%</t>
+  </si>
+  <si>
+    <t>73,87%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>51,29%</t>
+  </si>
+  <si>
+    <t>70,0%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>26,1%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>42,4%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>73,9%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>57,6%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2012 (Tasa respuesta: 25,87%)</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>50,4%</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>52,95%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>49,6%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>63,42%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>47,21%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>41,83%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>28,64%</t>
+  </si>
+  <si>
+    <t>41,2%</t>
+  </si>
+  <si>
+    <t>52,79%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>58,17%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>58,8%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>28,35%</t>
+  </si>
+  <si>
+    <t>56,4%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>31,65%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>33,43%</t>
+  </si>
+  <si>
+    <t>52,61%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>43,6%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>68,35%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>47,39%</t>
+  </si>
+  <si>
+    <t>66,57%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>26,94%</t>
+  </si>
+  <si>
+    <t>55,01%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>35,32%</t>
+  </si>
+  <si>
+    <t>54,57%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>44,99%</t>
+  </si>
+  <si>
+    <t>73,06%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>64,68%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>33,0%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>36,11%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>44,44%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>67,0%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>63,89%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>55,56%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>53,22%</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>20,03%</t>
+  </si>
+  <si>
+    <t>44,31%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>27,15%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>46,78%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>55,69%</t>
+  </si>
+  <si>
+    <t>79,97%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>72,85%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>45,87%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
+  </si>
+  <si>
+    <t>53,37%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>47,45%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>54,13%</t>
+  </si>
+  <si>
+    <t>75,49%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>46,63%</t>
+  </si>
+  <si>
+    <t>68,07%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>52,55%</t>
+  </si>
+  <si>
+    <t>68,24%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>26,56%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>42,2%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>73,44%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>57,8%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>35,9%</t>
+  </si>
+  <si>
+    <t>64,21%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>53,97%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>35,79%</t>
+  </si>
+  <si>
+    <t>64,1%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>46,03%</t>
+  </si>
+  <si>
+    <t>66,89%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>43,65%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,05%</t>
+  </si>
+  <si>
+    <t>45,32%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>33,32%</t>
+  </si>
+  <si>
+    <t>42,19%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>56,35%</t>
+  </si>
+  <si>
+    <t>69,56%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>54,68%</t>
+  </si>
+  <si>
+    <t>66,95%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>57,81%</t>
+  </si>
+  <si>
+    <t>66,68%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>44,6%</t>
+  </si>
+  <si>
+    <t>27,27%</t>
+  </si>
+  <si>
+    <t>59,82%</t>
+  </si>
+  <si>
+    <t>54,05%</t>
+  </si>
+  <si>
+    <t>35,24%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>48,69%</t>
+  </si>
+  <si>
+    <t>36,95%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>55,4%</t>
+  </si>
+  <si>
+    <t>40,18%</t>
+  </si>
+  <si>
+    <t>72,73%</t>
+  </si>
+  <si>
+    <t>45,95%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>64,76%</t>
+  </si>
+  <si>
+    <t>51,31%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>63,05%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>35,28%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>47,64%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>60,73%</t>
+  </si>
+  <si>
+    <t>47,63%</t>
+  </si>
+  <si>
+    <t>39,39%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>40,87%</t>
+  </si>
+  <si>
+    <t>64,72%</t>
+  </si>
+  <si>
+    <t>52,36%</t>
+  </si>
+  <si>
+    <t>39,27%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>52,37%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>60,61%</t>
+  </si>
+  <si>
+    <t>43,58%</t>
+  </si>
+  <si>
+    <t>30,63%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>52,19%</t>
+  </si>
+  <si>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>61,29%</t>
+  </si>
+  <si>
+    <t>56,42%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
   </si>
   <si>
     <t>47,81%</t>
   </si>
   <si>
-    <t>53,96%</t>
-  </si>
-  <si>
-    <t>42,32%</t>
-  </si>
-  <si>
-    <t>65,41%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>55,02%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>59,91%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>68,08%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>35,57%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>50,85%</t>
-  </si>
-  <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>16,35%</t>
-  </si>
-  <si>
-    <t>47,07%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>45,29%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>49,15%</t>
-  </si>
-  <si>
-    <t>80,44%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>52,93%</t>
-  </si>
-  <si>
-    <t>83,65%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>54,71%</t>
-  </si>
-  <si>
-    <t>76,92%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>26,99%</t>
-  </si>
-  <si>
-    <t>52,47%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>56,79%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>30,35%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>47,53%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>43,21%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>34,64%</t>
-  </si>
-  <si>
-    <t>47,65%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>40,1%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>32,47%</t>
-  </si>
-  <si>
-    <t>42,48%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>52,35%</t>
-  </si>
-  <si>
-    <t>65,36%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>59,9%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>57,52%</t>
-  </si>
-  <si>
-    <t>67,53%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2012 (Tasa respuesta: 25,87%)</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>27,94%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>39,68%</t>
-  </si>
-  <si>
-    <t>61,37%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>52,83%</t>
-  </si>
-  <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>72,06%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>38,63%</t>
-  </si>
-  <si>
-    <t>60,32%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>47,17%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>28,94%</t>
-  </si>
-  <si>
-    <t>47,93%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>22,01%</t>
-  </si>
-  <si>
-    <t>41,34%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>40,62%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>71,06%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>58,66%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>59,38%</t>
-  </si>
-  <si>
-    <t>72,36%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>30,9%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>52,7%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>69,1%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>47,3%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>53,35%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>35,56%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>35,35%</t>
-  </si>
-  <si>
-    <t>54,32%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>46,65%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>64,44%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>45,68%</t>
-  </si>
-  <si>
-    <t>64,65%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>32,8%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>48,06%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>44,85%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>67,2%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>51,94%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2015 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>53,91%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>45,86%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>27,04%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>46,09%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>54,14%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>53,46%</t>
-  </si>
-  <si>
-    <t>72,96%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>24,26%</t>
-  </si>
-  <si>
-    <t>46,57%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>30,99%</t>
-  </si>
-  <si>
-    <t>46,06%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>53,43%</t>
-  </si>
-  <si>
-    <t>75,74%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>53,94%</t>
-  </si>
-  <si>
-    <t>69,01%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>19,15%</t>
-  </si>
-  <si>
-    <t>43,32%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>25,41%</t>
-  </si>
-  <si>
-    <t>42,83%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>72,46%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>56,68%</t>
-  </si>
-  <si>
-    <t>80,85%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>57,17%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>48,65%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>37,18%</t>
-  </si>
-  <si>
-    <t>65,29%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>34,03%</t>
-  </si>
-  <si>
-    <t>54,4%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>51,35%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>34,71%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>45,6%</t>
-  </si>
-  <si>
-    <t>65,97%</t>
-  </si>
-  <si>
-    <t>30,09%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>32,41%</t>
-  </si>
-  <si>
-    <t>44,75%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>33,41%</t>
-  </si>
-  <si>
-    <t>42,33%</t>
-  </si>
-  <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>69,91%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>55,25%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>66,59%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>29,39%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>37,49%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>70,61%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>39,06%</t>
-  </si>
-  <si>
-    <t>62,51%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>35,73%</t>
-  </si>
-  <si>
-    <t>60,15%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>35,46%</t>
-  </si>
-  <si>
-    <t>58,96%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>39,81%</t>
-  </si>
-  <si>
-    <t>55,88%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>39,85%</t>
-  </si>
-  <si>
-    <t>64,27%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>41,04%</t>
-  </si>
-  <si>
-    <t>64,54%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>44,12%</t>
-  </si>
-  <si>
-    <t>60,19%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>30,82%</t>
-  </si>
-  <si>
-    <t>57,45%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>48,77%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>42,57%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>42,55%</t>
-  </si>
-  <si>
-    <t>69,18%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>51,23%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
+    <t>38,71%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
   </si>
   <si>
     <t>41,64%</t>
   </si>
   <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>53,81%</t>
+    <t>30,14%</t>
   </si>
   <si>
     <t>32,63%</t>
   </si>
   <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>45,52%</t>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>45,74%</t>
   </si>
   <si>
     <t>37,33%</t>
   </si>
   <si>
-    <t>46,82%</t>
+    <t>26,95%</t>
+  </si>
+  <si>
+    <t>46,93%</t>
   </si>
   <si>
     <t>58,36%</t>
   </si>
   <si>
-    <t>46,19%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
+    <t>69,86%</t>
   </si>
   <si>
     <t>67,37%</t>
   </si>
   <si>
-    <t>54,48%</t>
-  </si>
-  <si>
-    <t>82,81%</t>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
   </si>
   <si>
     <t>62,67%</t>
   </si>
   <si>
-    <t>53,18%</t>
+    <t>53,07%</t>
+  </si>
+  <si>
+    <t>73,05%</t>
   </si>
   <si>
     <t>44,08%</t>
   </si>
   <si>
-    <t>38,17%</t>
-  </si>
-  <si>
-    <t>51,77%</t>
+    <t>37,44%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
   </si>
   <si>
     <t>46,3%</t>
   </si>
   <si>
-    <t>37,88%</t>
-  </si>
-  <si>
-    <t>54,12%</t>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>53,25%</t>
   </si>
   <si>
     <t>45,13%</t>
   </si>
   <si>
-    <t>49,96%</t>
+    <t>39,53%</t>
+  </si>
+  <si>
+    <t>50,29%</t>
   </si>
   <si>
     <t>55,92%</t>
   </si>
   <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>61,83%</t>
+    <t>49,4%</t>
+  </si>
+  <si>
+    <t>62,56%</t>
   </si>
   <si>
     <t>53,7%</t>
   </si>
   <si>
-    <t>45,88%</t>
-  </si>
-  <si>
-    <t>62,12%</t>
+    <t>46,75%</t>
+  </si>
+  <si>
+    <t>62,54%</t>
   </si>
   <si>
     <t>54,87%</t>
   </si>
   <si>
-    <t>50,04%</t>
+    <t>49,71%</t>
+  </si>
+  <si>
+    <t>60,47%</t>
   </si>
 </sst>
 </file>
@@ -1536,7 +1566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F071816-A8B0-416F-A48D-FEBFB5B84C70}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11F04FF-0862-44B9-83F7-1DAACC315105}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2443,7 +2473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB28BDF-0592-4C7D-A065-1E0F1C82C654}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A480C7-4247-44D3-A81C-8A65607359B4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2722,13 +2752,13 @@
         <v>28521</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -2737,13 +2767,13 @@
         <v>19933</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -2752,13 +2782,13 @@
         <v>48453</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2773,13 +2803,13 @@
         <v>47382</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>137</v>
       </c>
       <c r="H8" s="7">
         <v>65</v>
@@ -2788,13 +2818,13 @@
         <v>45314</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>132</v>
@@ -2803,13 +2833,13 @@
         <v>92697</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2877,13 +2907,13 @@
         <v>13467</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="H10" s="7">
         <v>23</v>
@@ -2892,13 +2922,13 @@
         <v>16742</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>148</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -2907,13 +2937,13 @@
         <v>30210</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2928,10 +2958,10 @@
         <v>19027</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>153</v>
@@ -3350,7 +3380,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3CA6049-8B88-458A-8195-6812488EA875}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1EC8F7-49F1-4E8D-8061-95F37005F510}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3647,10 +3677,10 @@
         <v>218</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>39</v>
+        <v>219</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>162</v>
+        <v>220</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -3659,13 +3689,13 @@
         <v>38228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3680,13 +3710,13 @@
         <v>30946</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
@@ -3695,13 +3725,13 @@
         <v>30017</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>170</v>
+        <v>228</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>49</v>
+        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -3710,13 +3740,13 @@
         <v>60962</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3784,13 +3814,13 @@
         <v>16593</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="H10" s="7">
         <v>18</v>
@@ -3799,13 +3829,13 @@
         <v>12756</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -3814,13 +3844,13 @@
         <v>29348</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3835,13 +3865,13 @@
         <v>26207</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>239</v>
+        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="H11" s="7">
         <v>45</v>
@@ -3850,13 +3880,13 @@
         <v>31147</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M11" s="7">
         <v>82</v>
@@ -3865,13 +3895,13 @@
         <v>57355</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3939,13 +3969,13 @@
         <v>9255</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>249</v>
+        <v>86</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -3954,13 +3984,13 @@
         <v>18553</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3969,13 +3999,13 @@
         <v>27808</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,10 +4020,10 @@
         <v>17786</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>257</v>
+        <v>78</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>258</v>
@@ -4094,13 +4124,13 @@
         <v>54153</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>115</v>
+        <v>265</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H16" s="7">
         <v>97</v>
@@ -4109,13 +4139,13 @@
         <v>63172</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M16" s="7">
         <v>177</v>
@@ -4124,13 +4154,13 @@
         <v>117324</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4175,13 @@
         <v>93232</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>125</v>
+        <v>274</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H17" s="7">
         <v>149</v>
@@ -4160,13 +4190,13 @@
         <v>100087</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="M17" s="7">
         <v>283</v>
@@ -4175,13 +4205,13 @@
         <v>193321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4257,7 +4287,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DF849AD-8E23-46C1-990C-5426A0183762}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61D41D6-1219-4F85-871D-5D8095455DE4}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4274,7 +4304,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4381,13 +4411,13 @@
         <v>9337</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>238</v>
+        <v>286</v>
       </c>
       <c r="H4" s="7">
         <v>17</v>
@@ -4396,13 +4426,13 @@
         <v>8617</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>203</v>
+        <v>288</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
@@ -4411,13 +4441,13 @@
         <v>17954</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4432,13 +4462,13 @@
         <v>11598</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>229</v>
+        <v>294</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H5" s="7">
         <v>13</v>
@@ -4447,13 +4477,13 @@
         <v>7325</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>212</v>
+        <v>298</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
@@ -4462,13 +4492,13 @@
         <v>18923</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>294</v>
+        <v>300</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>295</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,13 +4566,13 @@
         <v>21908</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -4551,13 +4581,13 @@
         <v>21314</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
@@ -4566,13 +4596,13 @@
         <v>43222</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4587,13 +4617,13 @@
         <v>24094</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H8" s="7">
         <v>35</v>
@@ -4602,13 +4632,13 @@
         <v>23430</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="M8" s="7">
         <v>72</v>
@@ -4617,13 +4647,13 @@
         <v>47524</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,13 +4721,13 @@
         <v>18992</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="H10" s="7">
         <v>33</v>
@@ -4706,13 +4736,13 @@
         <v>23017</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
@@ -4721,13 +4751,13 @@
         <v>42009</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>326</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>321</v>
+        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4742,13 +4772,13 @@
         <v>24591</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>323</v>
+        <v>330</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>324</v>
+        <v>331</v>
       </c>
       <c r="H11" s="7">
         <v>20</v>
@@ -4757,13 +4787,13 @@
         <v>13886</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>325</v>
+        <v>332</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>326</v>
+        <v>333</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>327</v>
+        <v>334</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
@@ -4772,13 +4802,13 @@
         <v>38477</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>335</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>329</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4846,13 +4876,13 @@
         <v>25823</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>332</v>
+        <v>64</v>
       </c>
       <c r="H13" s="7">
         <v>27</v>
@@ -4861,13 +4891,13 @@
         <v>18538</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>333</v>
+        <v>340</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>334</v>
+        <v>341</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>335</v>
+        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
@@ -4876,13 +4906,13 @@
         <v>44362</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>336</v>
+        <v>343</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>133</v>
+        <v>344</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,13 +4927,13 @@
         <v>36193</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>339</v>
+        <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="H14" s="7">
         <v>44</v>
@@ -4912,13 +4942,13 @@
         <v>38284</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>342</v>
+        <v>349</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>343</v>
+        <v>350</v>
       </c>
       <c r="M14" s="7">
         <v>88</v>
@@ -4927,13 +4957,13 @@
         <v>74477</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>345</v>
+        <v>352</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>143</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5001,13 +5031,13 @@
         <v>76061</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>347</v>
+        <v>355</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="H16" s="7">
         <v>114</v>
@@ -5016,13 +5046,13 @@
         <v>71487</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -5031,13 +5061,13 @@
         <v>147547</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>352</v>
+        <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>303</v>
+        <v>361</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>353</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,13 +5082,13 @@
         <v>96476</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>354</v>
+        <v>363</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>355</v>
+        <v>364</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>356</v>
+        <v>365</v>
       </c>
       <c r="H17" s="7">
         <v>112</v>
@@ -5067,13 +5097,13 @@
         <v>82925</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>357</v>
+        <v>366</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>359</v>
+        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>247</v>
@@ -5082,13 +5112,13 @@
         <v>179401</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>360</v>
+        <v>369</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>361</v>
+        <v>370</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>313</v>
+        <v>371</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP16A02-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A02-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9DF4973-A219-4949-93AB-43A2CCD3C15E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{693DC2C5-BCDF-4D8F-B04B-54843B08D77C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B30A24B6-0427-4165-AB96-C685D523AF5E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{CB65FEED-BF3A-414D-9A3F-25EAE01B9201}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="370">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2007 (Tasa respuesta: 19,25%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>27,4%</t>
+  </si>
+  <si>
+    <t>15,75%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
     <t>40,54%</t>
   </si>
   <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>55,66%</t>
-  </si>
-  <si>
-    <t>27,4%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
+    <t>25,16%</t>
+  </si>
+  <si>
+    <t>55,57%</t>
   </si>
   <si>
     <t>34,04%</t>
   </si>
   <si>
-    <t>24,42%</t>
-  </si>
-  <si>
-    <t>44,39%</t>
+    <t>25,45%</t>
+  </si>
+  <si>
+    <t>44,62%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>72,6%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>84,25%</t>
+  </si>
+  <si>
     <t>59,46%</t>
   </si>
   <si>
-    <t>44,34%</t>
-  </si>
-  <si>
-    <t>73,11%</t>
-  </si>
-  <si>
-    <t>72,6%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
+    <t>44,43%</t>
+  </si>
+  <si>
+    <t>74,84%</t>
   </si>
   <si>
     <t>65,96%</t>
   </si>
   <si>
-    <t>55,61%</t>
-  </si>
-  <si>
-    <t>75,58%</t>
+    <t>55,38%</t>
+  </si>
+  <si>
+    <t>74,55%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1024 +137,1018 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>33,07%</t>
+  </si>
+  <si>
+    <t>22,55%</t>
+  </si>
+  <si>
+    <t>45,06%</t>
+  </si>
+  <si>
     <t>46,04%</t>
   </si>
   <si>
-    <t>34,87%</t>
-  </si>
-  <si>
-    <t>57,25%</t>
-  </si>
-  <si>
-    <t>33,07%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>44,7%</t>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>57,93%</t>
   </si>
   <si>
     <t>40,09%</t>
   </si>
   <si>
-    <t>32,98%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>48,43%</t>
+  </si>
+  <si>
+    <t>66,93%</t>
+  </si>
+  <si>
+    <t>54,94%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
   </si>
   <si>
     <t>53,96%</t>
   </si>
   <si>
-    <t>42,75%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>55,3%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
+    <t>42,07%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
   </si>
   <si>
     <t>59,91%</t>
   </si>
   <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>67,02%</t>
+    <t>51,57%</t>
+  </si>
+  <si>
+    <t>67,56%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>29,78%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
     <t>35,57%</t>
   </si>
   <si>
-    <t>20,89%</t>
+    <t>20,33%</t>
+  </si>
+  <si>
+    <t>50,73%</t>
+  </si>
+  <si>
+    <t>32,76%</t>
+  </si>
+  <si>
+    <t>22,41%</t>
+  </si>
+  <si>
+    <t>44,3%</t>
+  </si>
+  <si>
+    <t>70,22%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>64,43%</t>
+  </si>
+  <si>
+    <t>49,27%</t>
+  </si>
+  <si>
+    <t>79,67%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>55,7%</t>
+  </si>
+  <si>
+    <t>77,59%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>40,41%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>53,76%</t>
+  </si>
+  <si>
+    <t>38,97%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>52,5%</t>
+  </si>
+  <si>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>30,42%</t>
+  </si>
+  <si>
+    <t>48,9%</t>
+  </si>
+  <si>
+    <t>59,59%</t>
+  </si>
+  <si>
+    <t>46,24%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>61,03%</t>
+  </si>
+  <si>
+    <t>47,5%</t>
+  </si>
+  <si>
+    <t>72,11%</t>
+  </si>
+  <si>
+    <t>60,4%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>69,58%</t>
+  </si>
+  <si>
+    <t>32,96%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>41,23%</t>
+  </si>
+  <si>
+    <t>34,93%</t>
+  </si>
+  <si>
+    <t>47,9%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>67,04%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
+  </si>
+  <si>
+    <t>73,8%</t>
+  </si>
+  <si>
+    <t>58,77%</t>
+  </si>
+  <si>
+    <t>52,1%</t>
+  </si>
+  <si>
+    <t>65,07%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2012 (Tasa respuesta: 25,87%)</t>
+  </si>
+  <si>
+    <t>50,24%</t>
+  </si>
+  <si>
+    <t>38,54%</t>
+  </si>
+  <si>
+    <t>61,53%</t>
+  </si>
+  <si>
+    <t>38,81%</t>
+  </si>
+  <si>
+    <t>26,33%</t>
+  </si>
+  <si>
+    <t>49,87%</t>
+  </si>
+  <si>
+    <t>44,4%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>52,35%</t>
+  </si>
+  <si>
+    <t>49,76%</t>
+  </si>
+  <si>
+    <t>38,47%</t>
+  </si>
+  <si>
+    <t>61,46%</t>
+  </si>
+  <si>
+    <t>61,19%</t>
+  </si>
+  <si>
+    <t>50,13%</t>
+  </si>
+  <si>
+    <t>73,67%</t>
+  </si>
+  <si>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>47,65%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>30,55%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>40,73%</t>
+  </si>
+  <si>
+    <t>37,58%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>34,33%</t>
+  </si>
+  <si>
+    <t>27,81%</t>
+  </si>
+  <si>
+    <t>41,27%</t>
+  </si>
+  <si>
+    <t>69,45%</t>
+  </si>
+  <si>
+    <t>59,27%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>62,42%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>71,75%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>58,73%</t>
+  </si>
+  <si>
+    <t>72,19%</t>
+  </si>
+  <si>
+    <t>44,38%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>57,83%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>28,39%</t>
+  </si>
+  <si>
+    <t>43,02%</t>
+  </si>
+  <si>
+    <t>33,71%</t>
+  </si>
+  <si>
+    <t>53,14%</t>
+  </si>
+  <si>
+    <t>55,62%</t>
+  </si>
+  <si>
+    <t>42,17%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>56,98%</t>
+  </si>
+  <si>
+    <t>46,86%</t>
+  </si>
+  <si>
+    <t>66,29%</t>
+  </si>
+  <si>
+    <t>48,83%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>26,55%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>44,73%</t>
+  </si>
+  <si>
+    <t>35,41%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>51,17%</t>
+  </si>
+  <si>
+    <t>36,56%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>73,45%</t>
+  </si>
+  <si>
+    <t>55,27%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>64,59%</t>
+  </si>
+  <si>
+    <t>41,95%</t>
+  </si>
+  <si>
+    <t>35,18%</t>
+  </si>
+  <si>
+    <t>47,32%</t>
+  </si>
+  <si>
+    <t>39,02%</t>
+  </si>
+  <si>
+    <t>33,35%</t>
+  </si>
+  <si>
+    <t>45,05%</t>
+  </si>
+  <si>
+    <t>40,47%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>44,92%</t>
+  </si>
+  <si>
+    <t>58,05%</t>
   </si>
   <si>
     <t>52,68%</t>
   </si>
   <si>
-    <t>29,78%</t>
-  </si>
-  <si>
-    <t>15,92%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>22,58%</t>
-  </si>
-  <si>
-    <t>44,37%</t>
-  </si>
-  <si>
-    <t>64,43%</t>
-  </si>
-  <si>
-    <t>47,32%</t>
-  </si>
-  <si>
-    <t>79,11%</t>
-  </si>
-  <si>
-    <t>70,22%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>55,63%</t>
-  </si>
-  <si>
-    <t>77,42%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>38,97%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>52,48%</t>
-  </si>
-  <si>
-    <t>40,41%</t>
-  </si>
-  <si>
-    <t>26,13%</t>
-  </si>
-  <si>
-    <t>55,22%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>30,0%</t>
-  </si>
-  <si>
-    <t>48,71%</t>
-  </si>
-  <si>
-    <t>61,03%</t>
-  </si>
-  <si>
-    <t>47,52%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>59,59%</t>
-  </si>
-  <si>
-    <t>44,78%</t>
-  </si>
-  <si>
-    <t>73,87%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>51,29%</t>
-  </si>
-  <si>
-    <t>70,0%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>32,96%</t>
-  </si>
-  <si>
-    <t>26,1%</t>
-  </si>
-  <si>
-    <t>40,03%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>32,85%</t>
-  </si>
-  <si>
-    <t>42,4%</t>
-  </si>
-  <si>
-    <t>58,77%</t>
-  </si>
-  <si>
-    <t>51,92%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>67,04%</t>
-  </si>
-  <si>
-    <t>59,97%</t>
-  </si>
-  <si>
-    <t>73,9%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>57,6%</t>
-  </si>
-  <si>
-    <t>67,15%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2012 (Tasa respuesta: 25,87%)</t>
-  </si>
-  <si>
-    <t>38,81%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
-  </si>
-  <si>
-    <t>50,24%</t>
-  </si>
-  <si>
-    <t>38,46%</t>
-  </si>
-  <si>
-    <t>62,42%</t>
-  </si>
-  <si>
-    <t>44,4%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
+    <t>64,82%</t>
+  </si>
+  <si>
+    <t>60,98%</t>
+  </si>
+  <si>
+    <t>54,95%</t>
+  </si>
+  <si>
+    <t>66,65%</t>
+  </si>
+  <si>
+    <t>59,53%</t>
+  </si>
+  <si>
+    <t>55,08%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2016 (Tasa respuesta: 21,64%)</t>
+  </si>
+  <si>
+    <t>32,13%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>46,49%</t>
+  </si>
+  <si>
+    <t>39,38%</t>
+  </si>
+  <si>
+    <t>24,44%</t>
+  </si>
+  <si>
+    <t>54,23%</t>
+  </si>
+  <si>
+    <t>35,69%</t>
+  </si>
+  <si>
+    <t>26,67%</t>
+  </si>
+  <si>
+    <t>45,63%</t>
+  </si>
+  <si>
+    <t>67,87%</t>
+  </si>
+  <si>
+    <t>53,51%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
+  </si>
+  <si>
+    <t>60,62%</t>
+  </si>
+  <si>
+    <t>45,77%</t>
+  </si>
+  <si>
+    <t>75,56%</t>
+  </si>
+  <si>
+    <t>64,31%</t>
+  </si>
+  <si>
+    <t>54,37%</t>
+  </si>
+  <si>
+    <t>73,33%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>31,39%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>34,67%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
+  </si>
+  <si>
+    <t>46,32%</t>
+  </si>
+  <si>
+    <t>30,99%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>47,33%</t>
+  </si>
+  <si>
+    <t>68,61%</t>
+  </si>
+  <si>
+    <t>65,33%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>76,18%</t>
+  </si>
+  <si>
+    <t>53,38%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>38,77%</t>
+  </si>
+  <si>
+    <t>26,32%</t>
+  </si>
+  <si>
+    <t>51,38%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>41,57%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>80,9%</t>
+  </si>
+  <si>
+    <t>61,23%</t>
+  </si>
+  <si>
+    <t>48,62%</t>
+  </si>
+  <si>
+    <t>73,68%</t>
+  </si>
+  <si>
+    <t>66,15%</t>
+  </si>
+  <si>
+    <t>58,43%</t>
+  </si>
+  <si>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>51,2%</t>
+  </si>
+  <si>
+    <t>37,89%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>34,23%</t>
+  </si>
+  <si>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>43,94%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>54,69%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>34,29%</t>
+  </si>
+  <si>
+    <t>62,11%</t>
+  </si>
+  <si>
+    <t>65,77%</t>
+  </si>
+  <si>
+    <t>49,58%</t>
+  </si>
+  <si>
+    <t>79,02%</t>
+  </si>
+  <si>
+    <t>56,06%</t>
+  </si>
+  <si>
+    <t>45,31%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>38,69%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>45,07%</t>
+  </si>
+  <si>
+    <t>36,74%</t>
+  </si>
+  <si>
+    <t>30,62%</t>
+  </si>
+  <si>
+    <t>44,17%</t>
+  </si>
+  <si>
+    <t>37,77%</t>
+  </si>
+  <si>
+    <t>33,52%</t>
+  </si>
+  <si>
+    <t>42,23%</t>
+  </si>
+  <si>
+    <t>61,31%</t>
+  </si>
+  <si>
+    <t>54,93%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>63,26%</t>
+  </si>
+  <si>
+    <t>55,83%</t>
+  </si>
+  <si>
+    <t>69,38%</t>
+  </si>
+  <si>
+    <t>62,23%</t>
+  </si>
+  <si>
+    <t>57,77%</t>
+  </si>
+  <si>
+    <t>66,48%</t>
+  </si>
+  <si>
+    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
+  </si>
+  <si>
+    <t>53,99%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>27,78%</t>
+  </si>
+  <si>
+    <t>57,97%</t>
+  </si>
+  <si>
+    <t>47,7%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>60,46%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>42,03%</t>
+  </si>
+  <si>
+    <t>72,22%</t>
+  </si>
+  <si>
+    <t>52,3%</t>
+  </si>
+  <si>
+    <t>39,54%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>46,58%</t>
+  </si>
+  <si>
+    <t>33,94%</t>
+  </si>
+  <si>
+    <t>59,19%</t>
+  </si>
+  <si>
+    <t>47,49%</t>
+  </si>
+  <si>
+    <t>35,94%</t>
+  </si>
+  <si>
+    <t>60,18%</t>
+  </si>
+  <si>
+    <t>47,05%</t>
+  </si>
+  <si>
+    <t>56,66%</t>
+  </si>
+  <si>
+    <t>53,42%</t>
+  </si>
+  <si>
+    <t>40,81%</t>
+  </si>
+  <si>
+    <t>66,06%</t>
+  </si>
+  <si>
+    <t>52,51%</t>
+  </si>
+  <si>
+    <t>39,82%</t>
+  </si>
+  <si>
+    <t>64,06%</t>
   </si>
   <si>
     <t>52,95%</t>
   </si>
   <si>
-    <t>61,19%</t>
-  </si>
-  <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>49,76%</t>
-  </si>
-  <si>
-    <t>37,58%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>47,05%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>47,21%</t>
-  </si>
-  <si>
-    <t>30,55%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>41,83%</t>
-  </si>
-  <si>
-    <t>34,33%</t>
-  </si>
-  <si>
-    <t>28,64%</t>
-  </si>
-  <si>
-    <t>41,2%</t>
-  </si>
-  <si>
-    <t>52,79%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>69,45%</t>
-  </si>
-  <si>
-    <t>58,17%</t>
-  </si>
-  <si>
-    <t>78,05%</t>
-  </si>
-  <si>
-    <t>65,67%</t>
-  </si>
-  <si>
-    <t>58,8%</t>
-  </si>
-  <si>
-    <t>71,36%</t>
-  </si>
-  <si>
-    <t>41,44%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>56,4%</t>
-  </si>
-  <si>
-    <t>44,38%</t>
-  </si>
-  <si>
-    <t>31,65%</t>
-  </si>
-  <si>
-    <t>58,34%</t>
-  </si>
-  <si>
-    <t>43,02%</t>
-  </si>
-  <si>
-    <t>33,43%</t>
-  </si>
-  <si>
-    <t>52,61%</t>
-  </si>
-  <si>
-    <t>58,56%</t>
-  </si>
-  <si>
-    <t>43,6%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>55,62%</t>
-  </si>
-  <si>
-    <t>41,66%</t>
-  </si>
-  <si>
-    <t>68,35%</t>
-  </si>
-  <si>
-    <t>56,98%</t>
-  </si>
-  <si>
-    <t>47,39%</t>
-  </si>
-  <si>
-    <t>66,57%</t>
-  </si>
-  <si>
-    <t>40,32%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>55,01%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>34,82%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>44,73%</t>
-  </si>
-  <si>
-    <t>35,32%</t>
-  </si>
-  <si>
-    <t>54,57%</t>
-  </si>
-  <si>
-    <t>59,68%</t>
-  </si>
-  <si>
-    <t>44,99%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>51,17%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>65,18%</t>
-  </si>
-  <si>
-    <t>55,27%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>39,02%</t>
-  </si>
-  <si>
-    <t>33,0%</t>
-  </si>
-  <si>
-    <t>44,92%</t>
-  </si>
-  <si>
-    <t>41,95%</t>
-  </si>
-  <si>
-    <t>36,11%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>40,47%</t>
-  </si>
-  <si>
-    <t>36,15%</t>
-  </si>
-  <si>
-    <t>44,44%</t>
-  </si>
-  <si>
-    <t>60,98%</t>
-  </si>
-  <si>
-    <t>55,08%</t>
-  </si>
-  <si>
-    <t>67,0%</t>
-  </si>
-  <si>
-    <t>58,05%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>63,89%</t>
-  </si>
-  <si>
-    <t>59,53%</t>
-  </si>
-  <si>
-    <t>55,56%</t>
-  </si>
-  <si>
-    <t>63,85%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2016 (Tasa respuesta: 21,64%)</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>26,33%</t>
-  </si>
-  <si>
-    <t>53,22%</t>
-  </si>
-  <si>
-    <t>32,13%</t>
-  </si>
-  <si>
-    <t>20,03%</t>
-  </si>
-  <si>
-    <t>44,31%</t>
-  </si>
-  <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>27,15%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>60,62%</t>
-  </si>
-  <si>
-    <t>46,78%</t>
-  </si>
-  <si>
-    <t>73,67%</t>
-  </si>
-  <si>
-    <t>67,87%</t>
-  </si>
-  <si>
-    <t>55,69%</t>
-  </si>
-  <si>
-    <t>79,97%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>34,67%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>45,87%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>53,37%</t>
-  </si>
-  <si>
-    <t>38,54%</t>
-  </si>
-  <si>
-    <t>31,76%</t>
-  </si>
-  <si>
-    <t>47,45%</t>
-  </si>
-  <si>
-    <t>65,33%</t>
-  </si>
-  <si>
-    <t>54,13%</t>
-  </si>
-  <si>
-    <t>75,49%</t>
-  </si>
-  <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>46,63%</t>
-  </si>
-  <si>
-    <t>68,07%</t>
-  </si>
-  <si>
-    <t>61,46%</t>
-  </si>
-  <si>
-    <t>52,55%</t>
-  </si>
-  <si>
-    <t>68,24%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>26,56%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>18,32%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>42,2%</t>
-  </si>
-  <si>
-    <t>61,23%</t>
-  </si>
-  <si>
-    <t>73,44%</t>
-  </si>
-  <si>
-    <t>70,95%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>81,68%</t>
-  </si>
-  <si>
-    <t>66,15%</t>
-  </si>
-  <si>
-    <t>57,8%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>34,23%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>51,2%</t>
-  </si>
-  <si>
-    <t>35,9%</t>
-  </si>
-  <si>
-    <t>64,21%</t>
-  </si>
-  <si>
-    <t>43,94%</t>
-  </si>
-  <si>
-    <t>33,11%</t>
-  </si>
-  <si>
-    <t>53,97%</t>
-  </si>
-  <si>
-    <t>65,77%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>48,8%</t>
-  </si>
-  <si>
-    <t>35,79%</t>
-  </si>
-  <si>
-    <t>64,1%</t>
-  </si>
-  <si>
-    <t>56,06%</t>
-  </si>
-  <si>
-    <t>46,03%</t>
-  </si>
-  <si>
-    <t>66,89%</t>
-  </si>
-  <si>
-    <t>36,74%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>43,65%</t>
-  </si>
-  <si>
-    <t>38,69%</t>
-  </si>
-  <si>
-    <t>33,05%</t>
-  </si>
-  <si>
-    <t>45,32%</t>
-  </si>
-  <si>
-    <t>37,77%</t>
-  </si>
-  <si>
-    <t>33,32%</t>
-  </si>
-  <si>
-    <t>42,19%</t>
-  </si>
-  <si>
-    <t>63,26%</t>
-  </si>
-  <si>
-    <t>56,35%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>61,31%</t>
-  </si>
-  <si>
-    <t>54,68%</t>
-  </si>
-  <si>
-    <t>66,95%</t>
-  </si>
-  <si>
-    <t>62,23%</t>
-  </si>
-  <si>
-    <t>57,81%</t>
-  </si>
-  <si>
-    <t>66,68%</t>
-  </si>
-  <si>
-    <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 24,79%)</t>
-  </si>
-  <si>
-    <t>44,6%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>54,05%</t>
-  </si>
-  <si>
-    <t>35,24%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>48,69%</t>
-  </si>
-  <si>
-    <t>36,95%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>55,4%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>72,73%</t>
-  </si>
-  <si>
-    <t>45,95%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>64,76%</t>
-  </si>
-  <si>
-    <t>51,31%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>63,05%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
-  </si>
-  <si>
-    <t>35,28%</t>
-  </si>
-  <si>
-    <t>59,13%</t>
-  </si>
-  <si>
-    <t>47,64%</t>
-  </si>
-  <si>
-    <t>35,41%</t>
-  </si>
-  <si>
-    <t>60,73%</t>
-  </si>
-  <si>
-    <t>47,63%</t>
-  </si>
-  <si>
-    <t>39,39%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>52,38%</t>
-  </si>
-  <si>
-    <t>40,87%</t>
-  </si>
-  <si>
-    <t>64,72%</t>
-  </si>
-  <si>
-    <t>52,36%</t>
-  </si>
-  <si>
-    <t>39,27%</t>
-  </si>
-  <si>
-    <t>64,59%</t>
-  </si>
-  <si>
-    <t>52,37%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>60,61%</t>
-  </si>
-  <si>
-    <t>43,58%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>57,65%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>49,33%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>52,19%</t>
-  </si>
-  <si>
-    <t>42,58%</t>
-  </si>
-  <si>
-    <t>61,29%</t>
-  </si>
-  <si>
-    <t>56,42%</t>
-  </si>
-  <si>
-    <t>42,35%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>50,67%</t>
-  </si>
-  <si>
-    <t>47,81%</t>
-  </si>
-  <si>
-    <t>38,71%</t>
-  </si>
-  <si>
-    <t>57,42%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>30,14%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>45,74%</t>
-  </si>
-  <si>
-    <t>37,33%</t>
-  </si>
-  <si>
-    <t>26,95%</t>
-  </si>
-  <si>
-    <t>46,93%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>69,86%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>54,26%</t>
-  </si>
-  <si>
-    <t>82,42%</t>
-  </si>
-  <si>
-    <t>62,67%</t>
-  </si>
-  <si>
-    <t>53,07%</t>
-  </si>
-  <si>
-    <t>73,05%</t>
-  </si>
-  <si>
-    <t>44,08%</t>
+    <t>43,34%</t>
+  </si>
+  <si>
+    <t>61,35%</t>
+  </si>
+  <si>
+    <t>46,95%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>43,49%</t>
+  </si>
+  <si>
+    <t>56,97%</t>
+  </si>
+  <si>
+    <t>51,46%</t>
+  </si>
+  <si>
+    <t>40,3%</t>
+  </si>
+  <si>
+    <t>60,68%</t>
+  </si>
+  <si>
+    <t>38,65%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>53,05%</t>
+  </si>
+  <si>
+    <t>56,51%</t>
+  </si>
+  <si>
+    <t>43,03%</t>
+  </si>
+  <si>
+    <t>48,54%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>59,7%</t>
+  </si>
+  <si>
+    <t>23,57%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>41,61%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>31,06%</t>
+  </si>
+  <si>
+    <t>54,54%</t>
+  </si>
+  <si>
+    <t>31,88%</t>
+  </si>
+  <si>
+    <t>16,83%</t>
+  </si>
+  <si>
+    <t>43,38%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>58,39%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>45,46%</t>
+  </si>
+  <si>
+    <t>68,94%</t>
+  </si>
+  <si>
+    <t>68,12%</t>
+  </si>
+  <si>
+    <t>56,62%</t>
+  </si>
+  <si>
+    <t>83,17%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>24,21%</t>
+  </si>
+  <si>
+    <t>50,31%</t>
+  </si>
+  <si>
+    <t>43,96%</t>
   </si>
   <si>
     <t>37,44%</t>
   </si>
   <si>
-    <t>50,6%</t>
-  </si>
-  <si>
-    <t>46,3%</t>
-  </si>
-  <si>
-    <t>37,46%</t>
-  </si>
-  <si>
-    <t>53,25%</t>
-  </si>
-  <si>
-    <t>45,13%</t>
-  </si>
-  <si>
-    <t>39,53%</t>
-  </si>
-  <si>
-    <t>50,29%</t>
-  </si>
-  <si>
-    <t>55,92%</t>
-  </si>
-  <si>
-    <t>49,4%</t>
+    <t>50,87%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>48,3%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>49,69%</t>
+  </si>
+  <si>
+    <t>75,79%</t>
+  </si>
+  <si>
+    <t>56,04%</t>
+  </si>
+  <si>
+    <t>49,13%</t>
   </si>
   <si>
     <t>62,56%</t>
   </si>
   <si>
-    <t>53,7%</t>
-  </si>
-  <si>
-    <t>46,75%</t>
-  </si>
-  <si>
-    <t>62,54%</t>
-  </si>
-  <si>
-    <t>54,87%</t>
-  </si>
-  <si>
-    <t>49,71%</t>
-  </si>
-  <si>
-    <t>60,47%</t>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>51,7%</t>
   </si>
 </sst>
 </file>
@@ -1566,7 +1560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C11F04FF-0862-44B9-83F7-1DAACC315105}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D1FE2BA-092A-4F85-95B8-CE66E3E0172E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1684,10 +1678,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D4" s="7">
-        <v>12023</v>
+        <v>7954</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1699,10 +1693,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I4" s="7">
-        <v>7954</v>
+        <v>12023</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1735,10 +1729,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D5" s="7">
-        <v>17632</v>
+        <v>21081</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1750,10 +1744,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>21081</v>
+        <v>17632</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1786,25 +1780,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>46</v>
+      </c>
+      <c r="D6" s="7">
+        <v>29035</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>44</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>29655</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>46</v>
-      </c>
-      <c r="I6" s="7">
-        <v>29035</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1839,10 +1833,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7">
-        <v>23461</v>
+        <v>14295</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1854,10 +1848,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="I7" s="7">
-        <v>14295</v>
+        <v>23461</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1890,10 +1884,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7">
-        <v>27499</v>
+        <v>28926</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1905,10 +1899,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="I8" s="7">
-        <v>28926</v>
+        <v>27499</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1941,25 +1935,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>66</v>
+      </c>
+      <c r="D9" s="7">
+        <v>43221</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>76</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>50960</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>66</v>
-      </c>
-      <c r="I9" s="7">
-        <v>43221</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1994,10 +1988,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D10" s="7">
-        <v>8489</v>
+        <v>6703</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2009,10 +2003,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>6703</v>
+        <v>8489</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2045,10 +2039,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D11" s="7">
-        <v>15377</v>
+        <v>15804</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2060,10 +2054,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I11" s="7">
-        <v>15804</v>
+        <v>15377</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2096,25 +2090,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>33</v>
+      </c>
+      <c r="D12" s="7">
+        <v>22507</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>36</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>23866</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>33</v>
-      </c>
-      <c r="I12" s="7">
-        <v>22507</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2149,10 +2143,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7">
-        <v>15370</v>
+        <v>12343</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2164,10 +2158,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>12343</v>
+        <v>15370</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2200,10 +2194,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D14" s="7">
-        <v>24068</v>
+        <v>18200</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2215,10 +2209,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="I14" s="7">
-        <v>18200</v>
+        <v>24068</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2251,25 +2245,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>45</v>
+      </c>
+      <c r="D15" s="7">
+        <v>30543</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>59</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>39438</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>45</v>
-      </c>
-      <c r="I15" s="7">
-        <v>30543</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2304,10 +2298,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="D16" s="7">
-        <v>59343</v>
+        <v>41295</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>88</v>
@@ -2319,10 +2313,10 @@
         <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="I16" s="7">
-        <v>41295</v>
+        <v>59343</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>91</v>
@@ -2355,10 +2349,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D17" s="7">
-        <v>84576</v>
+        <v>84010</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>97</v>
@@ -2370,10 +2364,10 @@
         <v>99</v>
       </c>
       <c r="H17" s="7">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I17" s="7">
-        <v>84010</v>
+        <v>84576</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>100</v>
@@ -2406,25 +2400,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>190</v>
+      </c>
+      <c r="D18" s="7">
+        <v>125305</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>215</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>143919</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>190</v>
-      </c>
-      <c r="I18" s="7">
-        <v>125305</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2473,7 +2467,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0A480C7-4247-44D3-A81C-8A65607359B4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5C6EE9C-81C8-48F5-9C2A-7C7255ED6C5F}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2591,10 +2585,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="D4" s="7">
-        <v>20083</v>
+        <v>24868</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>108</v>
@@ -2606,10 +2600,10 @@
         <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="I4" s="7">
-        <v>24868</v>
+        <v>20083</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>111</v>
@@ -2642,10 +2636,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D5" s="7">
-        <v>31666</v>
+        <v>24634</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>117</v>
@@ -2657,10 +2651,10 @@
         <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I5" s="7">
-        <v>24634</v>
+        <v>31666</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>120</v>
@@ -2696,7 +2690,7 @@
         <v>73</v>
       </c>
       <c r="D6" s="7">
-        <v>51749</v>
+        <v>49502</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2711,7 +2705,7 @@
         <v>73</v>
       </c>
       <c r="I6" s="7">
-        <v>49502</v>
+        <v>51749</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2746,34 +2740,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>28</v>
+      </c>
+      <c r="D7" s="7">
+        <v>19933</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="7">
         <v>39</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>28521</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="H7" s="7">
-        <v>28</v>
-      </c>
-      <c r="I7" s="7">
-        <v>19933</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
         <v>67</v>
@@ -2782,13 +2776,13 @@
         <v>48453</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,34 +2791,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>65</v>
+      </c>
+      <c r="D8" s="7">
+        <v>45314</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="7">
         <v>67</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>47382</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="H8" s="7">
-        <v>65</v>
-      </c>
-      <c r="I8" s="7">
-        <v>45314</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
         <v>132</v>
@@ -2833,13 +2827,13 @@
         <v>92697</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2848,25 +2842,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>93</v>
+      </c>
+      <c r="D9" s="7">
+        <v>65247</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>106</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>75903</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>93</v>
-      </c>
-      <c r="I9" s="7">
-        <v>65247</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2901,34 +2895,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7">
+        <v>16742</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H10" s="7">
         <v>19</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>13467</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H10" s="7">
-        <v>23</v>
-      </c>
-      <c r="I10" s="7">
-        <v>16742</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="M10" s="7">
         <v>42</v>
@@ -2937,13 +2931,13 @@
         <v>30210</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,31 +2946,31 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>30</v>
+      </c>
+      <c r="D11" s="7">
+        <v>20986</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="H11" s="7">
         <v>27</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>19027</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="H11" s="7">
-        <v>30</v>
-      </c>
-      <c r="I11" s="7">
-        <v>20986</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>155</v>
+        <v>114</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>156</v>
@@ -3003,25 +2997,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37728</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>46</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>32494</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
-      <c r="I12" s="7">
-        <v>37728</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3056,10 +3050,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>13128</v>
+        <v>17168</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>160</v>
@@ -3071,10 +3065,10 @@
         <v>162</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>17168</v>
+        <v>13128</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>163</v>
@@ -3107,10 +3101,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>19435</v>
+        <v>17993</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>169</v>
@@ -3122,10 +3116,10 @@
         <v>171</v>
       </c>
       <c r="H14" s="7">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I14" s="7">
-        <v>17993</v>
+        <v>19435</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>172</v>
@@ -3158,25 +3152,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>51</v>
+      </c>
+      <c r="D15" s="7">
+        <v>35161</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>48</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>32563</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>51</v>
-      </c>
-      <c r="I15" s="7">
-        <v>35161</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3211,10 +3205,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="D16" s="7">
-        <v>75199</v>
+        <v>78711</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>178</v>
@@ -3226,10 +3220,10 @@
         <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="I16" s="7">
-        <v>78711</v>
+        <v>75199</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>181</v>
@@ -3262,10 +3256,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="D17" s="7">
-        <v>117511</v>
+        <v>108926</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>187</v>
@@ -3277,10 +3271,10 @@
         <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="I17" s="7">
-        <v>108926</v>
+        <v>117511</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>190</v>
@@ -3313,25 +3307,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>270</v>
+      </c>
+      <c r="D18" s="7">
+        <v>187637</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>273</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>192710</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>270</v>
-      </c>
-      <c r="I18" s="7">
-        <v>187637</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3380,7 +3374,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D1EC8F7-49F1-4E8D-8061-95F37005F510}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B0B500F-A17A-44A7-BA31-BE21FE1AF4F9}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3498,10 +3492,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7">
-        <v>11885</v>
+        <v>10056</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>197</v>
@@ -3513,10 +3507,10 @@
         <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>10056</v>
+        <v>11885</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>200</v>
@@ -3549,10 +3543,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D5" s="7">
-        <v>18294</v>
+        <v>21237</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>206</v>
@@ -3564,10 +3558,10 @@
         <v>208</v>
       </c>
       <c r="H5" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>21237</v>
+        <v>18294</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>209</v>
@@ -3600,25 +3594,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>51</v>
+      </c>
+      <c r="D6" s="7">
+        <v>31293</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>47</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>30179</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>51</v>
-      </c>
-      <c r="I6" s="7">
-        <v>31293</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3653,10 +3647,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>16420</v>
+        <v>21807</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>215</v>
@@ -3668,10 +3662,10 @@
         <v>217</v>
       </c>
       <c r="H7" s="7">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>21807</v>
+        <v>16420</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>218</v>
@@ -3689,13 +3683,13 @@
         <v>38228</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,31 +3701,31 @@
         <v>45</v>
       </c>
       <c r="D8" s="7">
-        <v>30946</v>
+        <v>30017</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>45</v>
       </c>
       <c r="I8" s="7">
-        <v>30017</v>
+        <v>30946</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -3740,13 +3734,13 @@
         <v>60962</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3755,25 +3749,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>80</v>
+      </c>
+      <c r="D9" s="7">
+        <v>51824</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>70</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>47366</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>80</v>
-      </c>
-      <c r="I9" s="7">
-        <v>51824</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3808,34 +3802,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7">
+        <v>12756</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="H10" s="7">
         <v>23</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>16593</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="H10" s="7">
-        <v>18</v>
-      </c>
-      <c r="I10" s="7">
-        <v>12756</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>236</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>237</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -3844,13 +3838,13 @@
         <v>29348</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3859,25 +3853,25 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7">
-        <v>26207</v>
+        <v>31147</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>240</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>242</v>
       </c>
       <c r="H11" s="7">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I11" s="7">
-        <v>31147</v>
+        <v>26207</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>243</v>
@@ -3910,25 +3904,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>63</v>
+      </c>
+      <c r="D12" s="7">
+        <v>43903</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>60</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>42800</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>63</v>
-      </c>
-      <c r="I12" s="7">
-        <v>43903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3963,10 +3957,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="D13" s="7">
-        <v>9255</v>
+        <v>18553</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>249</v>
@@ -3975,22 +3969,22 @@
         <v>250</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>86</v>
+        <v>251</v>
       </c>
       <c r="H13" s="7">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>18553</v>
+        <v>9255</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="M13" s="7">
         <v>40</v>
@@ -3999,13 +3993,13 @@
         <v>27808</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4014,34 +4008,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>25</v>
+      </c>
+      <c r="D14" s="7">
+        <v>17686</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" s="7">
         <v>24</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>17786</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>258</v>
-      </c>
-      <c r="H14" s="7">
-        <v>25</v>
-      </c>
-      <c r="I14" s="7">
-        <v>17686</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M14" s="7">
         <v>49</v>
@@ -4050,13 +4044,13 @@
         <v>35473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4065,25 +4059,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>52</v>
+      </c>
+      <c r="D15" s="7">
+        <v>36239</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>37</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>27041</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>52</v>
-      </c>
-      <c r="I15" s="7">
-        <v>36239</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4118,34 +4112,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>97</v>
+      </c>
+      <c r="D16" s="7">
+        <v>63172</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="H16" s="7">
         <v>80</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>54153</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="H16" s="7">
-        <v>97</v>
-      </c>
-      <c r="I16" s="7">
-        <v>63172</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M16" s="7">
         <v>177</v>
@@ -4154,13 +4148,13 @@
         <v>117324</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4169,34 +4163,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>149</v>
+      </c>
+      <c r="D17" s="7">
+        <v>100087</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="H17" s="7">
         <v>134</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>93232</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="H17" s="7">
-        <v>149</v>
-      </c>
-      <c r="I17" s="7">
-        <v>100087</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M17" s="7">
         <v>283</v>
@@ -4205,13 +4199,13 @@
         <v>193321</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4220,25 +4214,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>246</v>
+      </c>
+      <c r="D18" s="7">
+        <v>163259</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>214</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>147385</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>246</v>
-      </c>
-      <c r="I18" s="7">
-        <v>163259</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4287,7 +4281,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F61D41D6-1219-4F85-871D-5D8095455DE4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F9EB4A-C009-42E9-83D8-D3D4F0EF2401}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4304,7 +4298,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4405,49 +4399,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>17</v>
+      </c>
+      <c r="D4" s="7">
+        <v>8629</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="H4" s="7">
         <v>21</v>
       </c>
-      <c r="D4" s="7">
-        <v>9337</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="H4" s="7">
-        <v>17</v>
-      </c>
       <c r="I4" s="7">
-        <v>8617</v>
+        <v>9659</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="M4" s="7">
         <v>38</v>
       </c>
       <c r="N4" s="7">
-        <v>17954</v>
+        <v>18288</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4456,49 +4450,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>13</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7354</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="H5" s="7">
         <v>21</v>
       </c>
-      <c r="D5" s="7">
-        <v>11598</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="H5" s="7">
-        <v>13</v>
-      </c>
       <c r="I5" s="7">
-        <v>7325</v>
+        <v>12698</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="M5" s="7">
         <v>34</v>
       </c>
       <c r="N5" s="7">
-        <v>18923</v>
+        <v>20052</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4507,25 +4501,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>30</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15983</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>42</v>
       </c>
-      <c r="D6" s="7">
-        <v>20935</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>30</v>
-      </c>
       <c r="I6" s="7">
-        <v>15942</v>
+        <v>22357</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4540,7 +4534,7 @@
         <v>72</v>
       </c>
       <c r="N6" s="7">
-        <v>36877</v>
+        <v>38340</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4560,49 +4554,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7">
+        <v>21716</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="H7" s="7">
         <v>38</v>
       </c>
-      <c r="D7" s="7">
-        <v>21908</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="H7" s="7">
-        <v>37</v>
-      </c>
       <c r="I7" s="7">
-        <v>21314</v>
+        <v>23264</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="M7" s="7">
         <v>75</v>
       </c>
       <c r="N7" s="7">
-        <v>43222</v>
+        <v>44980</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>309</v>
+        <v>118</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4611,49 +4605,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>35</v>
+      </c>
+      <c r="D8" s="7">
+        <v>24907</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="H8" s="7">
         <v>37</v>
       </c>
-      <c r="D8" s="7">
-        <v>24094</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="H8" s="7">
-        <v>35</v>
-      </c>
       <c r="I8" s="7">
-        <v>23430</v>
+        <v>25720</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M8" s="7">
         <v>72</v>
       </c>
       <c r="N8" s="7">
-        <v>47524</v>
+        <v>50627</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>319</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4662,25 +4656,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46623</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>75</v>
       </c>
-      <c r="D9" s="7">
-        <v>46002</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>72</v>
-      </c>
       <c r="I9" s="7">
-        <v>44744</v>
+        <v>48984</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4695,7 +4689,7 @@
         <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>90746</v>
+        <v>95607</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4715,10 +4709,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>18992</v>
+        <v>22793</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>320</v>
@@ -4730,34 +4724,34 @@
         <v>322</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>23017</v>
+        <v>20080</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>323</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>324</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>325</v>
       </c>
       <c r="M10" s="7">
         <v>56</v>
       </c>
       <c r="N10" s="7">
-        <v>42009</v>
+        <v>42873</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>326</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4766,49 +4760,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>20</v>
+      </c>
+      <c r="D11" s="7">
+        <v>14358</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="H11" s="7">
         <v>33</v>
       </c>
-      <c r="D11" s="7">
-        <v>24591</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>330</v>
-      </c>
-      <c r="G11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>26089</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>331</v>
       </c>
-      <c r="H11" s="7">
-        <v>20</v>
-      </c>
-      <c r="I11" s="7">
-        <v>13886</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>332</v>
       </c>
-      <c r="K11" s="7" t="s">
-        <v>333</v>
-      </c>
       <c r="L11" s="7" t="s">
-        <v>334</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>53</v>
       </c>
       <c r="N11" s="7">
-        <v>38477</v>
+        <v>40447</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4817,25 +4811,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37151</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>43583</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
       <c r="I12" s="7">
-        <v>36903</v>
+        <v>46169</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4850,7 +4844,7 @@
         <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>80486</v>
+        <v>83320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4870,49 +4864,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>27</v>
+      </c>
+      <c r="D13" s="7">
+        <v>18378</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H13" s="7">
         <v>33</v>
       </c>
-      <c r="D13" s="7">
-        <v>25823</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>338</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>27093</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>339</v>
       </c>
-      <c r="G13" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="7">
-        <v>27</v>
-      </c>
-      <c r="I13" s="7">
-        <v>18538</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>340</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>342</v>
       </c>
       <c r="M13" s="7">
         <v>60</v>
       </c>
       <c r="N13" s="7">
-        <v>44362</v>
+        <v>45471</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>343</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>344</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4924,13 +4918,13 @@
         <v>44</v>
       </c>
       <c r="D14" s="7">
-        <v>36193</v>
+        <v>59579</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>346</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>347</v>
@@ -4939,7 +4933,7 @@
         <v>44</v>
       </c>
       <c r="I14" s="7">
-        <v>38284</v>
+        <v>37599</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>348</v>
@@ -4954,7 +4948,7 @@
         <v>88</v>
       </c>
       <c r="N14" s="7">
-        <v>74477</v>
+        <v>97178</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>351</v>
@@ -4972,25 +4966,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>71</v>
+      </c>
+      <c r="D15" s="7">
+        <v>77957</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>77</v>
       </c>
-      <c r="D15" s="7">
-        <v>62016</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>71</v>
-      </c>
       <c r="I15" s="7">
-        <v>56822</v>
+        <v>64692</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5005,7 +4999,7 @@
         <v>148</v>
       </c>
       <c r="N15" s="7">
-        <v>118839</v>
+        <v>142649</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5025,10 +5019,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D16" s="7">
-        <v>76061</v>
+        <v>71517</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>354</v>
@@ -5040,10 +5034,10 @@
         <v>356</v>
       </c>
       <c r="H16" s="7">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="I16" s="7">
-        <v>71487</v>
+        <v>80096</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>357</v>
@@ -5058,16 +5052,16 @@
         <v>229</v>
       </c>
       <c r="N16" s="7">
-        <v>147547</v>
+        <v>151613</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>360</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>361</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5076,49 +5070,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>112</v>
+      </c>
+      <c r="D17" s="7">
+        <v>106198</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="H17" s="7">
         <v>135</v>
       </c>
-      <c r="D17" s="7">
-        <v>96476</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="G17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>102105</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="H17" s="7">
-        <v>112</v>
-      </c>
-      <c r="I17" s="7">
-        <v>82925</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>368</v>
       </c>
       <c r="M17" s="7">
         <v>247</v>
       </c>
       <c r="N17" s="7">
-        <v>179401</v>
+        <v>208303</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>370</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>371</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5127,25 +5121,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>226</v>
+      </c>
+      <c r="D18" s="7">
+        <v>177715</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>250</v>
       </c>
-      <c r="D18" s="7">
-        <v>172537</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>226</v>
-      </c>
       <c r="I18" s="7">
-        <v>154412</v>
+        <v>182201</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5160,7 +5154,7 @@
         <v>476</v>
       </c>
       <c r="N18" s="7">
-        <v>326948</v>
+        <v>359916</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
